--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_16_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_16_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1643634.766998974</v>
+        <v>1589182.26839626</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3152906.953531608</v>
+        <v>3258380.312740271</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10802160.66375549</v>
+        <v>10851725.66926811</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6582605.222163187</v>
+        <v>6567064.183560273</v>
       </c>
     </row>
     <row r="11">
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>104.5316728441181</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>104.5316728441181</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>104.0812356328513</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>107.2264454249826</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1891,10 +1891,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>97.59026292245599</v>
       </c>
       <c r="S17" t="n">
-        <v>104.5316728441181</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>92.07149744109917</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>107.2264454249826</v>
       </c>
     </row>
     <row r="18">
@@ -1922,13 +1922,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>94.44505313032462</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>96.94457898314857</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1937,13 +1937,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>86.84303058172046</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>61.73495765500629</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>38.89614626992491</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1982,16 +1982,16 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>104.5316728441181</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>107.2264454249826</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>107.2264454249826</v>
       </c>
       <c r="Y18" t="n">
-        <v>16.71612963953507</v>
+        <v>107.2264454249826</v>
       </c>
     </row>
     <row r="19">
@@ -2046,19 +2046,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>35.66155667020421</v>
+        <v>33.8831882330007</v>
       </c>
       <c r="R19" t="n">
-        <v>104.5316728441181</v>
+        <v>107.2264454249826</v>
       </c>
       <c r="S19" t="n">
-        <v>104.5316728441181</v>
+        <v>107.2264454249826</v>
       </c>
       <c r="T19" t="n">
-        <v>104.5316728441181</v>
+        <v>60.56186489732395</v>
       </c>
       <c r="U19" t="n">
-        <v>56.40994077089499</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>107.2264454249826</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2095,10 +2095,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>107.2264454249826</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>104.0812356328513</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>99.3686313596595</v>
+        <v>97.59026292245599</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2137,19 +2137,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>104.5316728441181</v>
+        <v>107.2264454249826</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>97.23453892555779</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>104.5316728441181</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2207,22 +2207,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>47.87897913394944</v>
       </c>
       <c r="S21" t="n">
-        <v>104.5316728441181</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>46.56607399637523</v>
       </c>
       <c r="U21" t="n">
-        <v>104.5316728441181</v>
+        <v>107.2264454249826</v>
       </c>
       <c r="V21" t="n">
-        <v>92.07149744109915</v>
+        <v>107.2264454249826</v>
       </c>
       <c r="W21" t="n">
-        <v>104.5316728441181</v>
+        <v>107.2264454249826</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2283,28 +2283,28 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>35.66155667020421</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>104.5316728441181</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>104.5316728441181</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>104.5316728441181</v>
+        <v>107.2264454249826</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>107.2264454249826</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>107.2264454249826</v>
       </c>
       <c r="X22" t="n">
-        <v>56.40994077089499</v>
+        <v>94.44505313032462</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>225.5643050915487</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>82.19640313519831</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2329,16 +2329,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>214.6473360366209</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>214.6473360366209</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>121.0792567189908</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>60.4724850897346</v>
+        <v>1.056996107433963</v>
       </c>
       <c r="S23" t="n">
         <v>119.6234367348303</v>
@@ -2377,7 +2377,7 @@
         <v>161.9490200564214</v>
       </c>
       <c r="V23" t="n">
-        <v>225.5643050915487</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2402,19 +2402,19 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>58.04843271322368</v>
+        <v>2.536701860497692</v>
       </c>
       <c r="E24" t="n">
         <v>68.24844760398587</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>55.6725795419688</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>47.94688431179556</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>22.83881138508139</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2444,19 +2444,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>10.76120130122806</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>82.28653825242274</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>110.7680958434065</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>136.5447492295597</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>143.4039542980102</v>
       </c>
       <c r="W24" t="n">
         <v>162.2983503095045</v>
@@ -2465,7 +2465,7 @@
         <v>116.3763523520624</v>
       </c>
       <c r="Y24" t="n">
-        <v>52.90123679543624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2484,13 +2484,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>57.03732979515409</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>56.02441517151617</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>42.56214951238371</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>87.89675852575441</v>
       </c>
       <c r="S25" t="n">
-        <v>134.6199651855572</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>138.5489565768664</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>196.9223965050758</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>140.19071216926</v>
+        <v>197.1263654851759</v>
       </c>
       <c r="X25" t="n">
-        <v>136.3130225376221</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>214.6473360366209</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>214.6473360366209</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>214.6473360366209</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>110.3180554177628</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>49.71128378850655</v>
       </c>
       <c r="S26" t="n">
-        <v>119.6234367348303</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>133.6992167127163</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>29.03203437478617</v>
       </c>
       <c r="V26" t="n">
-        <v>170.9186915686381</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>225.5643050915487</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>225.5643050915487</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2633,25 +2633,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>77.13655079845226</v>
+        <v>66.37534949722421</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>19.63930533304216</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>68.24844760398587</v>
+        <v>57.48724630275781</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>44.91137824074075</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>37.1856830105675</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>12.07761008385333</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2681,28 +2681,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>10.76120130122806</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>82.28653825242274</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>78.40410048022937</v>
+        <v>100.0068945421785</v>
       </c>
       <c r="U27" t="n">
-        <v>136.5447492295597</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>143.4039542980102</v>
+        <v>132.6427529967821</v>
       </c>
       <c r="W27" t="n">
-        <v>162.2983503095045</v>
+        <v>151.5371490082765</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>105.6151510508343</v>
       </c>
       <c r="Y27" t="n">
-        <v>116.2860629258893</v>
+        <v>105.5248616246612</v>
       </c>
     </row>
     <row r="28">
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.58133820180628</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>67.0889869459847</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>48.45763886556922</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>46.27612849392604</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>62.06933835479644</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>55.29264077461515</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>87.89675852575441</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>134.6199651855572</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>138.5489565768664</v>
+        <v>127.7877552756384</v>
       </c>
       <c r="U28" t="n">
-        <v>196.9223965050758</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>151.9798091711849</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>40.68303250188355</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>118.4268191994517</v>
       </c>
     </row>
     <row r="29">
@@ -2797,22 +2797,22 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>134.817134977805</v>
       </c>
       <c r="E29" t="n">
-        <v>225.5643050915487</v>
+        <v>214.6473360366209</v>
       </c>
       <c r="F29" t="n">
-        <v>225.5643050915487</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>214.6473360366209</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>110.3180554177628</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,10 +2839,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>60.4724850897346</v>
+        <v>49.71128378850655</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>108.8622354336022</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2854,13 +2854,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>225.5643050915487</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>138.2045548349014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2870,22 +2870,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>77.13655079845226</v>
+        <v>66.37534949722421</v>
       </c>
       <c r="C30" t="n">
-        <v>35.79416281463565</v>
+        <v>72.55066483567261</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>47.28723141199562</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>44.91137824074075</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>37.1856830105675</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2918,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>10.76120130122806</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>82.28653825242274</v>
+        <v>71.52533695119469</v>
       </c>
       <c r="T30" t="n">
-        <v>110.7680958434065</v>
+        <v>100.0068945421785</v>
       </c>
       <c r="U30" t="n">
-        <v>136.5447492295597</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>143.4039542980102</v>
+        <v>132.6427529967821</v>
       </c>
       <c r="W30" t="n">
-        <v>162.2983503095045</v>
+        <v>49.37807752906678</v>
       </c>
       <c r="X30" t="n">
-        <v>116.3763523520624</v>
+        <v>105.6151510508343</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>105.5248616246612</v>
       </c>
     </row>
     <row r="31">
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>87.89675852575441</v>
+        <v>77.13555722452635</v>
       </c>
       <c r="S31" t="n">
-        <v>134.6199651855572</v>
+        <v>123.8587638843291</v>
       </c>
       <c r="T31" t="n">
-        <v>138.5489565768664</v>
+        <v>127.7877552756384</v>
       </c>
       <c r="U31" t="n">
-        <v>196.9223965050758</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>77.36308777821428</v>
       </c>
       <c r="W31" t="n">
-        <v>79.58133820180628</v>
+        <v>186.3651641839479</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>125.551821236394</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>214.6473360366209</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>40.56729454876744</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3040,10 +3040,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>214.6473360366209</v>
       </c>
       <c r="G32" t="n">
-        <v>225.5643050915487</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>37.63367370465322</v>
       </c>
       <c r="S32" t="n">
-        <v>96.78462534974888</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>64.25874087023384</v>
+        <v>110.8604053276349</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3091,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>225.5643050915487</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>214.6473360366209</v>
       </c>
       <c r="Y32" t="n">
-        <v>225.5643050915487</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3113,10 +3113,10 @@
         <v>60.47305475181928</v>
       </c>
       <c r="D33" t="n">
-        <v>35.20962132814229</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>17.297116190664</v>
+        <v>10.14016401044259</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3189,25 +3189,25 @@
         <v>67.59653594544083</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>55.01137686213137</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>36.38002878171589</v>
       </c>
       <c r="E34" t="n">
-        <v>25.15449729028553</v>
+        <v>34.19851841007271</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>33.18560378643478</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>55.7555351219623</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>49.99172827094311</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>43.21503069076182</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>111.7811538004758</v>
       </c>
       <c r="T34" t="n">
-        <v>115.710145191785</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>174.0835851199944</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>139.9021990873316</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>40.76339564977638</v>
       </c>
       <c r="X34" t="n">
         <v>113.4742111525407</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>106.3492091155983</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>225.5643050915487</v>
+        <v>214.6473360366209</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3277,10 +3277,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>225.5643050915487</v>
+        <v>214.6473360366209</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>189.0613735810556</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3313,16 +3313,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>37.63367370465322</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>21.93315754864268</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>139.11020867134</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>225.5643050915487</v>
+        <v>214.6473360366209</v>
       </c>
     </row>
     <row r="36">
@@ -3347,13 +3347,13 @@
         <v>54.29773941337088</v>
       </c>
       <c r="C36" t="n">
-        <v>19.82832985888169</v>
+        <v>60.47305475181928</v>
       </c>
       <c r="D36" t="n">
         <v>35.20962132814229</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>45.40963621890448</v>
       </c>
       <c r="F36" t="n">
         <v>32.83376815688742</v>
@@ -3410,10 +3410,10 @@
         <v>139.4595389244232</v>
       </c>
       <c r="X36" t="n">
-        <v>93.53754096698101</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>93.4472515408079</v>
+        <v>58.56385788758312</v>
       </c>
     </row>
     <row r="37">
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.93769028817251</v>
+        <v>67.59653594544083</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>55.01137686213137</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,13 +3435,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>33.18560378643478</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>49.99172827094311</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>65.05794714067302</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>111.7811538004758</v>
       </c>
       <c r="T37" t="n">
-        <v>115.710145191785</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>174.0835851199944</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>139.9021990873316</v>
@@ -3489,10 +3489,10 @@
         <v>174.2875541000946</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>113.4742111525407</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>67.52991172313435</v>
       </c>
     </row>
     <row r="38">
@@ -3505,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>4.751088415884232</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3514,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>122.1472199500579</v>
+        <v>214.6473360366209</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3550,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>76.52981997457812</v>
+        <v>74.75145153737461</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>147.9781831603563</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>176.2279865040614</v>
       </c>
       <c r="V38" t="n">
-        <v>225.5643050915487</v>
+        <v>214.6473360366209</v>
       </c>
       <c r="W38" t="n">
-        <v>225.5643050915487</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>225.5643050915487</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3584,22 +3584,22 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>97.59083258454066</v>
       </c>
       <c r="D39" t="n">
-        <v>74.10576759806719</v>
+        <v>72.32739916086368</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>82.52741405162587</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>69.9515459896088</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>38.8961462699249</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,25 +3632,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>98.34387313726626</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>126.82543072825</v>
+        <v>125.0470622910465</v>
       </c>
       <c r="U39" t="n">
-        <v>152.6020841144033</v>
+        <v>97.31117749405334</v>
       </c>
       <c r="V39" t="n">
-        <v>73.89757034628953</v>
+        <v>157.6829207456502</v>
       </c>
       <c r="W39" t="n">
-        <v>178.355685194348</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>132.3433978107328</v>
+        <v>130.5650293735293</v>
       </c>
     </row>
     <row r="40">
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>87.1095061036645</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3705,16 +3705,16 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>12.82274528512282</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>103.9540934105979</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>150.6773000704007</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>154.6062914617099</v>
+        <v>101.3234766146395</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3723,10 +3723,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>117.9119999767318</v>
+        <v>211.4053319328159</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>150.5919889852621</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3748,19 +3748,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>104.5752688691541</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>121.0326322474306</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>106.6055424835369</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>97.46194219321518</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3802,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>107.4208906116383</v>
       </c>
       <c r="X41" t="n">
-        <v>121.0326322474306</v>
+        <v>107.4208906116383</v>
       </c>
       <c r="Y41" t="n">
-        <v>121.0326322474306</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>107.4208906116383</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3827,7 +3827,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>105.2379047074664</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3869,19 +3869,19 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>110.2931624918788</v>
+        <v>96.79930635490285</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>107.4208906116383</v>
       </c>
       <c r="U42" t="n">
-        <v>121.0326322474306</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>117.3450122390887</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>121.0326322474306</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3942,28 +3942,28 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.77203463973535</v>
+        <v>33.75486750375988</v>
       </c>
       <c r="R43" t="n">
-        <v>115.9033827652104</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>86.96275732602177</v>
+        <v>107.4208906116383</v>
       </c>
       <c r="T43" t="n">
-        <v>121.0326322474306</v>
+        <v>107.4208906116383</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>121.0326322474306</v>
+        <v>60.86145294697116</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>107.4208906116383</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>121.0326322474306</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3991,13 +3991,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>121.0326322474306</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>107.4208906116383</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>107.4208906116383</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,13 +4030,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>107.4208906116383</v>
       </c>
       <c r="U44" t="n">
-        <v>106.6055424835369</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>94.61632045073095</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>121.0326322474306</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,19 +4055,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>105.1431750379083</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>107.4208906116383</v>
       </c>
       <c r="D45" t="n">
-        <v>86.05505695267971</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>92.66203664544938</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4112,19 +4112,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>36.43994274037948</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>121.0326322474306</v>
+        <v>107.4208906116383</v>
       </c>
       <c r="W45" t="n">
-        <v>121.0326322474306</v>
+        <v>107.4208906116383</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>1.954283805281596</v>
       </c>
     </row>
     <row r="46">
@@ -4149,16 +4149,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>106.6009707464997</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>100.8371638954805</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>31.96917150471374</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4185,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>107.4208906116383</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>107.4208906116383</v>
       </c>
       <c r="U46" t="n">
-        <v>109.2635008317041</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>94.61632045073095</v>
       </c>
       <c r="W46" t="n">
-        <v>121.0326322474306</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>107.4208906116383</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>113.9500821549214</v>
+        <v>222.0202177126187</v>
       </c>
       <c r="C17" t="n">
-        <v>8.362533827529447</v>
+        <v>222.0202177126187</v>
       </c>
       <c r="D17" t="n">
-        <v>8.362533827529447</v>
+        <v>116.8876564673144</v>
       </c>
       <c r="E17" t="n">
-        <v>8.362533827529447</v>
+        <v>8.578115633998609</v>
       </c>
       <c r="F17" t="n">
-        <v>8.362533827529447</v>
+        <v>8.578115633998609</v>
       </c>
       <c r="G17" t="n">
-        <v>8.362533827529447</v>
+        <v>8.578115633998609</v>
       </c>
       <c r="H17" t="n">
-        <v>8.362533827529447</v>
+        <v>8.578115633998609</v>
       </c>
       <c r="I17" t="n">
-        <v>8.362533827529447</v>
+        <v>8.578115633998609</v>
       </c>
       <c r="J17" t="n">
-        <v>8.362533827529447</v>
+        <v>8.578115633998609</v>
       </c>
       <c r="K17" t="n">
-        <v>111.3775397384518</v>
+        <v>111.593121544921</v>
       </c>
       <c r="L17" t="n">
-        <v>111.3775397384518</v>
+        <v>217.7473025156537</v>
       </c>
       <c r="M17" t="n">
-        <v>214.8638958541287</v>
+        <v>233.0915454371467</v>
       </c>
       <c r="N17" t="n">
-        <v>314.6403352607954</v>
+        <v>233.0915454371467</v>
       </c>
       <c r="O17" t="n">
-        <v>418.1266913764723</v>
+        <v>339.2457264078794</v>
       </c>
       <c r="P17" t="n">
-        <v>418.1266913764723</v>
+        <v>428.9057816999304</v>
       </c>
       <c r="Q17" t="n">
-        <v>418.1266913764723</v>
+        <v>428.9057816999304</v>
       </c>
       <c r="R17" t="n">
-        <v>418.1266913764723</v>
+        <v>330.3297585459345</v>
       </c>
       <c r="S17" t="n">
-        <v>312.5391430490803</v>
+        <v>330.3297585459345</v>
       </c>
       <c r="T17" t="n">
-        <v>312.5391430490803</v>
+        <v>330.3297585459345</v>
       </c>
       <c r="U17" t="n">
-        <v>312.5391430490803</v>
+        <v>330.3297585459345</v>
       </c>
       <c r="V17" t="n">
-        <v>219.5376304823134</v>
+        <v>330.3297585459345</v>
       </c>
       <c r="W17" t="n">
-        <v>219.5376304823134</v>
+        <v>330.3297585459345</v>
       </c>
       <c r="X17" t="n">
-        <v>219.5376304823134</v>
+        <v>330.3297585459345</v>
       </c>
       <c r="Y17" t="n">
-        <v>219.5376304823134</v>
+        <v>222.0202177126187</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>295.6541636152065</v>
+        <v>8.578115633998609</v>
       </c>
       <c r="C18" t="n">
-        <v>295.6541636152065</v>
+        <v>8.578115633998609</v>
       </c>
       <c r="D18" t="n">
-        <v>197.7303464605109</v>
+        <v>8.578115633998609</v>
       </c>
       <c r="E18" t="n">
-        <v>197.7303464605109</v>
+        <v>8.578115633998609</v>
       </c>
       <c r="F18" t="n">
-        <v>197.7303464605109</v>
+        <v>8.578115633998609</v>
       </c>
       <c r="G18" t="n">
-        <v>110.0101135496822</v>
+        <v>8.578115633998609</v>
       </c>
       <c r="H18" t="n">
-        <v>47.65157046381723</v>
+        <v>8.578115633998609</v>
       </c>
       <c r="I18" t="n">
-        <v>8.362533827529447</v>
+        <v>8.578115633998609</v>
       </c>
       <c r="J18" t="n">
-        <v>8.362533827529447</v>
+        <v>8.578115633998609</v>
       </c>
       <c r="K18" t="n">
-        <v>8.362533827529447</v>
+        <v>41.04868027440281</v>
       </c>
       <c r="L18" t="n">
-        <v>111.8488899432063</v>
+        <v>41.04868027440281</v>
       </c>
       <c r="M18" t="n">
-        <v>215.3352460588832</v>
+        <v>41.04868027440281</v>
       </c>
       <c r="N18" t="n">
-        <v>314.6403352607954</v>
+        <v>147.2028612451356</v>
       </c>
       <c r="O18" t="n">
-        <v>418.1266913764723</v>
+        <v>253.3570422158683</v>
       </c>
       <c r="P18" t="n">
-        <v>418.1266913764723</v>
+        <v>359.5112231866011</v>
       </c>
       <c r="Q18" t="n">
-        <v>418.1266913764723</v>
+        <v>428.9057816999304</v>
       </c>
       <c r="R18" t="n">
-        <v>418.1266913764723</v>
+        <v>428.9057816999304</v>
       </c>
       <c r="S18" t="n">
-        <v>418.1266913764723</v>
+        <v>428.9057816999304</v>
       </c>
       <c r="T18" t="n">
-        <v>418.1266913764723</v>
+        <v>428.9057816999304</v>
       </c>
       <c r="U18" t="n">
-        <v>418.1266913764723</v>
+        <v>428.9057816999304</v>
       </c>
       <c r="V18" t="n">
-        <v>312.5391430490803</v>
+        <v>428.9057816999304</v>
       </c>
       <c r="W18" t="n">
-        <v>312.5391430490803</v>
+        <v>320.5962408666146</v>
       </c>
       <c r="X18" t="n">
-        <v>312.5391430490803</v>
+        <v>212.2867000332988</v>
       </c>
       <c r="Y18" t="n">
-        <v>295.6541636152065</v>
+        <v>103.9771591999831</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>8.362533827529447</v>
+        <v>8.578115633998609</v>
       </c>
       <c r="C19" t="n">
-        <v>8.362533827529447</v>
+        <v>8.578115633998609</v>
       </c>
       <c r="D19" t="n">
-        <v>8.362533827529447</v>
+        <v>8.578115633998609</v>
       </c>
       <c r="E19" t="n">
-        <v>8.362533827529447</v>
+        <v>8.578115633998609</v>
       </c>
       <c r="F19" t="n">
-        <v>8.362533827529447</v>
+        <v>8.578115633998609</v>
       </c>
       <c r="G19" t="n">
-        <v>8.362533827529447</v>
+        <v>8.578115633998609</v>
       </c>
       <c r="H19" t="n">
-        <v>8.362533827529447</v>
+        <v>8.578115633998609</v>
       </c>
       <c r="I19" t="n">
-        <v>8.362533827529447</v>
+        <v>8.578115633998609</v>
       </c>
       <c r="J19" t="n">
-        <v>8.362533827529447</v>
+        <v>8.578115633998609</v>
       </c>
       <c r="K19" t="n">
-        <v>36.31121863558069</v>
+        <v>38.28738519488132</v>
       </c>
       <c r="L19" t="n">
-        <v>113.6208253589689</v>
+        <v>117.3575766711011</v>
       </c>
       <c r="M19" t="n">
-        <v>202.8043452668664</v>
+        <v>208.30168133183</v>
       </c>
       <c r="N19" t="n">
-        <v>296.4906776379779</v>
+        <v>303.748598455773</v>
       </c>
       <c r="O19" t="n">
-        <v>370.8254359885525</v>
+        <v>379.8439415591791</v>
       </c>
       <c r="P19" t="n">
-        <v>418.1266913764723</v>
+        <v>428.9057816999304</v>
       </c>
       <c r="Q19" t="n">
-        <v>382.1049169621246</v>
+        <v>394.6803390403337</v>
       </c>
       <c r="R19" t="n">
-        <v>276.5173686347326</v>
+        <v>286.370798207018</v>
       </c>
       <c r="S19" t="n">
-        <v>170.9298203073406</v>
+        <v>178.0612573737022</v>
       </c>
       <c r="T19" t="n">
-        <v>65.34227197994863</v>
+        <v>116.8876564673144</v>
       </c>
       <c r="U19" t="n">
-        <v>8.362533827529447</v>
+        <v>116.8876564673144</v>
       </c>
       <c r="V19" t="n">
-        <v>8.362533827529447</v>
+        <v>116.8876564673144</v>
       </c>
       <c r="W19" t="n">
-        <v>8.362533827529447</v>
+        <v>116.8876564673144</v>
       </c>
       <c r="X19" t="n">
-        <v>8.362533827529447</v>
+        <v>8.578115633998609</v>
       </c>
       <c r="Y19" t="n">
-        <v>8.362533827529447</v>
+        <v>8.578115633998609</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>8.362533827529447</v>
+        <v>222.0202177126187</v>
       </c>
       <c r="C20" t="n">
-        <v>8.362533827529447</v>
+        <v>222.0202177126187</v>
       </c>
       <c r="D20" t="n">
-        <v>8.362533827529447</v>
+        <v>222.0202177126187</v>
       </c>
       <c r="E20" t="n">
-        <v>8.362533827529447</v>
+        <v>222.0202177126187</v>
       </c>
       <c r="F20" t="n">
-        <v>8.362533827529447</v>
+        <v>222.0202177126187</v>
       </c>
       <c r="G20" t="n">
-        <v>8.362533827529447</v>
+        <v>113.7106768793029</v>
       </c>
       <c r="H20" t="n">
-        <v>8.362533827529447</v>
+        <v>8.578115633998609</v>
       </c>
       <c r="I20" t="n">
-        <v>8.362533827529447</v>
+        <v>8.578115633998609</v>
       </c>
       <c r="J20" t="n">
-        <v>8.362533827529447</v>
+        <v>8.578115633998609</v>
       </c>
       <c r="K20" t="n">
-        <v>111.3775397384518</v>
+        <v>8.578115633998609</v>
       </c>
       <c r="L20" t="n">
-        <v>121.4939238530675</v>
+        <v>110.4432387877321</v>
       </c>
       <c r="M20" t="n">
-        <v>224.9802799687444</v>
+        <v>216.5974197584649</v>
       </c>
       <c r="N20" t="n">
-        <v>328.4666360844213</v>
+        <v>322.7516007291977</v>
       </c>
       <c r="O20" t="n">
-        <v>328.4666360844213</v>
+        <v>428.9057816999304</v>
       </c>
       <c r="P20" t="n">
-        <v>418.1266913764723</v>
+        <v>428.9057816999304</v>
       </c>
       <c r="Q20" t="n">
-        <v>418.1266913764723</v>
+        <v>428.9057816999304</v>
       </c>
       <c r="R20" t="n">
-        <v>317.7543364677254</v>
+        <v>330.3297585459345</v>
       </c>
       <c r="S20" t="n">
-        <v>317.7543364677254</v>
+        <v>330.3297585459345</v>
       </c>
       <c r="T20" t="n">
-        <v>317.7543364677254</v>
+        <v>330.3297585459345</v>
       </c>
       <c r="U20" t="n">
-        <v>212.1667881403334</v>
+        <v>222.0202177126187</v>
       </c>
       <c r="V20" t="n">
-        <v>212.1667881403334</v>
+        <v>222.0202177126187</v>
       </c>
       <c r="W20" t="n">
-        <v>113.9500821549214</v>
+        <v>222.0202177126187</v>
       </c>
       <c r="X20" t="n">
-        <v>113.9500821549214</v>
+        <v>222.0202177126187</v>
       </c>
       <c r="Y20" t="n">
-        <v>8.362533827529447</v>
+        <v>222.0202177126187</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>8.362533827529447</v>
+        <v>8.578115633998609</v>
       </c>
       <c r="C21" t="n">
-        <v>8.362533827529447</v>
+        <v>8.578115633998609</v>
       </c>
       <c r="D21" t="n">
-        <v>8.362533827529447</v>
+        <v>8.578115633998609</v>
       </c>
       <c r="E21" t="n">
-        <v>8.362533827529447</v>
+        <v>8.578115633998609</v>
       </c>
       <c r="F21" t="n">
-        <v>8.362533827529447</v>
+        <v>8.578115633998609</v>
       </c>
       <c r="G21" t="n">
-        <v>8.362533827529447</v>
+        <v>8.578115633998609</v>
       </c>
       <c r="H21" t="n">
-        <v>8.362533827529447</v>
+        <v>8.578115633998609</v>
       </c>
       <c r="I21" t="n">
-        <v>8.362533827529447</v>
+        <v>8.578115633998609</v>
       </c>
       <c r="J21" t="n">
-        <v>8.362533827529447</v>
+        <v>8.578115633998609</v>
       </c>
       <c r="K21" t="n">
-        <v>111.8488899432063</v>
+        <v>114.7322966047314</v>
       </c>
       <c r="L21" t="n">
-        <v>215.3352460588832</v>
+        <v>114.7322966047314</v>
       </c>
       <c r="M21" t="n">
-        <v>215.3352460588832</v>
+        <v>114.7322966047314</v>
       </c>
       <c r="N21" t="n">
-        <v>215.3352460588832</v>
+        <v>147.2028612451356</v>
       </c>
       <c r="O21" t="n">
-        <v>318.8216021745601</v>
+        <v>253.3570422158683</v>
       </c>
       <c r="P21" t="n">
-        <v>348.732132863143</v>
+        <v>359.5112231866011</v>
       </c>
       <c r="Q21" t="n">
-        <v>418.1266913764723</v>
+        <v>428.9057816999304</v>
       </c>
       <c r="R21" t="n">
-        <v>418.1266913764723</v>
+        <v>380.5431765141229</v>
       </c>
       <c r="S21" t="n">
-        <v>312.5391430490803</v>
+        <v>380.5431765141229</v>
       </c>
       <c r="T21" t="n">
-        <v>312.5391430490803</v>
+        <v>333.5067381339459</v>
       </c>
       <c r="U21" t="n">
-        <v>206.9515947216883</v>
+        <v>225.1971973006301</v>
       </c>
       <c r="V21" t="n">
-        <v>113.9500821549214</v>
+        <v>116.8876564673144</v>
       </c>
       <c r="W21" t="n">
-        <v>8.362533827529447</v>
+        <v>8.578115633998609</v>
       </c>
       <c r="X21" t="n">
-        <v>8.362533827529447</v>
+        <v>8.578115633998609</v>
       </c>
       <c r="Y21" t="n">
-        <v>8.362533827529447</v>
+        <v>8.578115633998609</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>8.362533827529447</v>
+        <v>8.578115633998609</v>
       </c>
       <c r="C22" t="n">
-        <v>8.362533827529447</v>
+        <v>8.578115633998609</v>
       </c>
       <c r="D22" t="n">
-        <v>8.362533827529447</v>
+        <v>8.578115633998609</v>
       </c>
       <c r="E22" t="n">
-        <v>8.362533827529447</v>
+        <v>8.578115633998609</v>
       </c>
       <c r="F22" t="n">
-        <v>8.362533827529447</v>
+        <v>8.578115633998609</v>
       </c>
       <c r="G22" t="n">
-        <v>8.362533827529447</v>
+        <v>8.578115633998609</v>
       </c>
       <c r="H22" t="n">
-        <v>8.362533827529447</v>
+        <v>8.578115633998609</v>
       </c>
       <c r="I22" t="n">
-        <v>8.362533827529447</v>
+        <v>8.578115633998609</v>
       </c>
       <c r="J22" t="n">
-        <v>8.362533827529447</v>
+        <v>8.578115633998609</v>
       </c>
       <c r="K22" t="n">
-        <v>36.31121863558064</v>
+        <v>38.28738519488134</v>
       </c>
       <c r="L22" t="n">
-        <v>113.6208253589689</v>
+        <v>117.3575766711011</v>
       </c>
       <c r="M22" t="n">
-        <v>202.8043452668663</v>
+        <v>208.30168133183</v>
       </c>
       <c r="N22" t="n">
-        <v>296.4906776379779</v>
+        <v>303.748598455773</v>
       </c>
       <c r="O22" t="n">
-        <v>370.8254359885525</v>
+        <v>379.8439415591791</v>
       </c>
       <c r="P22" t="n">
-        <v>418.1266913764723</v>
+        <v>428.9057816999304</v>
       </c>
       <c r="Q22" t="n">
-        <v>382.1049169621246</v>
+        <v>428.9057816999304</v>
       </c>
       <c r="R22" t="n">
-        <v>276.5173686347326</v>
+        <v>428.9057816999304</v>
       </c>
       <c r="S22" t="n">
-        <v>170.9298203073406</v>
+        <v>428.9057816999304</v>
       </c>
       <c r="T22" t="n">
-        <v>170.9298203073406</v>
+        <v>428.9057816999304</v>
       </c>
       <c r="U22" t="n">
-        <v>65.34227197994863</v>
+        <v>320.5962408666146</v>
       </c>
       <c r="V22" t="n">
-        <v>65.34227197994863</v>
+        <v>212.2867000332988</v>
       </c>
       <c r="W22" t="n">
-        <v>65.34227197994863</v>
+        <v>103.9771591999831</v>
       </c>
       <c r="X22" t="n">
-        <v>8.362533827529447</v>
+        <v>8.578115633998609</v>
       </c>
       <c r="Y22" t="n">
-        <v>8.362533827529447</v>
+        <v>8.578115633998609</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>101.0718142408575</v>
+        <v>573.1050482892254</v>
       </c>
       <c r="C23" t="n">
-        <v>18.0451444073239</v>
+        <v>573.1050482892254</v>
       </c>
       <c r="D23" t="n">
-        <v>18.0451444073239</v>
+        <v>573.1050482892254</v>
       </c>
       <c r="E23" t="n">
-        <v>18.0451444073239</v>
+        <v>573.1050482892254</v>
       </c>
       <c r="F23" t="n">
-        <v>18.0451444073239</v>
+        <v>356.2895573431436</v>
       </c>
       <c r="G23" t="n">
-        <v>18.0451444073239</v>
+        <v>139.4740663970618</v>
       </c>
       <c r="H23" t="n">
-        <v>18.0451444073239</v>
+        <v>139.4740663970618</v>
       </c>
       <c r="I23" t="n">
-        <v>18.0451444073239</v>
+        <v>17.17178688292967</v>
       </c>
       <c r="J23" t="n">
-        <v>18.0451444073239</v>
+        <v>17.17178688292967</v>
       </c>
       <c r="K23" t="n">
-        <v>121.0601503182463</v>
+        <v>21.30310224363203</v>
       </c>
       <c r="L23" t="n">
-        <v>240.5720654613522</v>
+        <v>201.3789538282906</v>
       </c>
       <c r="M23" t="n">
-        <v>457.5476927242564</v>
+        <v>413.8798165045453</v>
       </c>
       <c r="N23" t="n">
-        <v>663.4022149314957</v>
+        <v>619.7343387117846</v>
       </c>
       <c r="O23" t="n">
-        <v>812.5971650741437</v>
+        <v>768.9292888544327</v>
       </c>
       <c r="P23" t="n">
-        <v>902.2572203661947</v>
+        <v>858.5893441464837</v>
       </c>
       <c r="Q23" t="n">
-        <v>902.2572203661947</v>
+        <v>858.5893441464837</v>
       </c>
       <c r="R23" t="n">
-        <v>841.1739020937355</v>
+        <v>857.5216713106918</v>
       </c>
       <c r="S23" t="n">
-        <v>720.3421478161291</v>
+        <v>736.6899170330854</v>
       </c>
       <c r="T23" t="n">
-        <v>720.3421478161291</v>
+        <v>736.6899170330854</v>
       </c>
       <c r="U23" t="n">
-        <v>556.7572790722691</v>
+        <v>573.1050482892254</v>
       </c>
       <c r="V23" t="n">
-        <v>328.9145466565633</v>
+        <v>573.1050482892254</v>
       </c>
       <c r="W23" t="n">
-        <v>328.9145466565633</v>
+        <v>573.1050482892254</v>
       </c>
       <c r="X23" t="n">
-        <v>328.9145466565633</v>
+        <v>573.1050482892254</v>
       </c>
       <c r="Y23" t="n">
-        <v>328.9145466565633</v>
+        <v>573.1050482892254</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>145.6177507883436</v>
+        <v>216.4075694115451</v>
       </c>
       <c r="C24" t="n">
-        <v>145.6177507883436</v>
+        <v>216.4075694115451</v>
       </c>
       <c r="D24" t="n">
-        <v>86.98297026993589</v>
+        <v>213.8452442999313</v>
       </c>
       <c r="E24" t="n">
-        <v>18.0451444073239</v>
+        <v>144.9074184373193</v>
       </c>
       <c r="F24" t="n">
-        <v>18.0451444073239</v>
+        <v>88.67248960704779</v>
       </c>
       <c r="G24" t="n">
-        <v>18.0451444073239</v>
+        <v>40.24129333250683</v>
       </c>
       <c r="H24" t="n">
-        <v>18.0451444073239</v>
+        <v>17.17178688292967</v>
       </c>
       <c r="I24" t="n">
-        <v>18.0451444073239</v>
+        <v>17.17178688292967</v>
       </c>
       <c r="J24" t="n">
-        <v>18.0451444073239</v>
+        <v>17.17178688292967</v>
       </c>
       <c r="K24" t="n">
-        <v>143.4027044651613</v>
+        <v>17.17178688292967</v>
       </c>
       <c r="L24" t="n">
-        <v>203.6018601582482</v>
+        <v>17.17178688292967</v>
       </c>
       <c r="M24" t="n">
-        <v>203.6018601582482</v>
+        <v>181.549582667294</v>
       </c>
       <c r="N24" t="n">
-        <v>426.9105221988814</v>
+        <v>394.0504453435487</v>
       </c>
       <c r="O24" t="n">
-        <v>650.2191842395146</v>
+        <v>606.5513080198034</v>
       </c>
       <c r="P24" t="n">
-        <v>832.8626618528654</v>
+        <v>789.1947856331543</v>
       </c>
       <c r="Q24" t="n">
-        <v>902.2572203661947</v>
+        <v>858.5893441464837</v>
       </c>
       <c r="R24" t="n">
-        <v>891.3873200619239</v>
+        <v>858.5893441464837</v>
       </c>
       <c r="S24" t="n">
-        <v>808.2696046554363</v>
+        <v>858.5893441464837</v>
       </c>
       <c r="T24" t="n">
-        <v>696.3826391570459</v>
+        <v>858.5893441464837</v>
       </c>
       <c r="U24" t="n">
-        <v>558.4586500362785</v>
+        <v>720.6653550257163</v>
       </c>
       <c r="V24" t="n">
-        <v>558.4586500362785</v>
+        <v>575.8128759368171</v>
       </c>
       <c r="W24" t="n">
-        <v>394.5209224509204</v>
+        <v>411.875148351459</v>
       </c>
       <c r="X24" t="n">
-        <v>276.969051388231</v>
+        <v>294.3232772887696</v>
       </c>
       <c r="Y24" t="n">
-        <v>223.5334586655682</v>
+        <v>294.3232772887696</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>18.0451444073239</v>
+        <v>174.3676398920751</v>
       </c>
       <c r="C25" t="n">
-        <v>18.0451444073239</v>
+        <v>174.3676398920751</v>
       </c>
       <c r="D25" t="n">
-        <v>18.0451444073239</v>
+        <v>174.3676398920751</v>
       </c>
       <c r="E25" t="n">
-        <v>18.0451444073239</v>
+        <v>116.7541754525255</v>
       </c>
       <c r="F25" t="n">
-        <v>18.0451444073239</v>
+        <v>60.16385709745867</v>
       </c>
       <c r="G25" t="n">
-        <v>18.0451444073239</v>
+        <v>17.17178688292967</v>
       </c>
       <c r="H25" t="n">
-        <v>18.0451444073239</v>
+        <v>17.17178688292967</v>
       </c>
       <c r="I25" t="n">
-        <v>18.0451444073239</v>
+        <v>17.17178688292967</v>
       </c>
       <c r="J25" t="n">
-        <v>18.0451444073239</v>
+        <v>17.17178688292967</v>
       </c>
       <c r="K25" t="n">
-        <v>84.5010140226008</v>
+        <v>83.62765649820656</v>
       </c>
       <c r="L25" t="n">
-        <v>200.3178055532147</v>
+        <v>199.4444480288205</v>
       </c>
       <c r="M25" t="n">
-        <v>328.0085102683378</v>
+        <v>327.1351527439435</v>
       </c>
       <c r="N25" t="n">
-        <v>460.2020274466751</v>
+        <v>459.3286699222808</v>
       </c>
       <c r="O25" t="n">
-        <v>573.0439706044752</v>
+        <v>572.170613080081</v>
       </c>
       <c r="P25" t="n">
-        <v>658.8524107996208</v>
+        <v>657.9790532752265</v>
       </c>
       <c r="Q25" t="n">
-        <v>662.0546545033443</v>
+        <v>661.1812969789501</v>
       </c>
       <c r="R25" t="n">
-        <v>573.2700499318752</v>
+        <v>572.3966924074809</v>
       </c>
       <c r="S25" t="n">
-        <v>437.290287118181</v>
+        <v>572.3966924074809</v>
       </c>
       <c r="T25" t="n">
-        <v>297.3418461314473</v>
+        <v>572.3966924074809</v>
       </c>
       <c r="U25" t="n">
-        <v>297.3418461314473</v>
+        <v>373.4851807861922</v>
       </c>
       <c r="V25" t="n">
-        <v>297.3418461314473</v>
+        <v>373.4851807861922</v>
       </c>
       <c r="W25" t="n">
-        <v>155.7350661624977</v>
+        <v>174.3676398920751</v>
       </c>
       <c r="X25" t="n">
-        <v>18.0451444073239</v>
+        <v>174.3676398920751</v>
       </c>
       <c r="Y25" t="n">
-        <v>18.0451444073239</v>
+        <v>174.3676398920751</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>18.0451444073239</v>
+        <v>562.2351479849547</v>
       </c>
       <c r="C26" t="n">
-        <v>18.0451444073239</v>
+        <v>562.2351479849547</v>
       </c>
       <c r="D26" t="n">
-        <v>18.0451444073239</v>
+        <v>345.4196570388729</v>
       </c>
       <c r="E26" t="n">
-        <v>18.0451444073239</v>
+        <v>128.6041660927911</v>
       </c>
       <c r="F26" t="n">
-        <v>18.0451444073239</v>
+        <v>128.6041660927911</v>
       </c>
       <c r="G26" t="n">
-        <v>18.0451444073239</v>
+        <v>128.6041660927911</v>
       </c>
       <c r="H26" t="n">
-        <v>18.0451444073239</v>
+        <v>128.6041660927911</v>
       </c>
       <c r="I26" t="n">
-        <v>18.0451444073239</v>
+        <v>17.17178688292967</v>
       </c>
       <c r="J26" t="n">
-        <v>18.0451444073239</v>
+        <v>17.17178688292967</v>
       </c>
       <c r="K26" t="n">
-        <v>60.49621387669362</v>
+        <v>120.186792793852</v>
       </c>
       <c r="L26" t="n">
-        <v>240.5720654613522</v>
+        <v>201.3789538282906</v>
       </c>
       <c r="M26" t="n">
-        <v>457.5476927242564</v>
+        <v>413.8798165045453</v>
       </c>
       <c r="N26" t="n">
-        <v>663.4022149314957</v>
+        <v>619.7343387117846</v>
       </c>
       <c r="O26" t="n">
-        <v>812.5971650741437</v>
+        <v>768.9292888544327</v>
       </c>
       <c r="P26" t="n">
-        <v>902.2572203661947</v>
+        <v>858.5893441464837</v>
       </c>
       <c r="Q26" t="n">
-        <v>902.2572203661947</v>
+        <v>858.5893441464837</v>
       </c>
       <c r="R26" t="n">
-        <v>902.2572203661947</v>
+        <v>808.3759261782952</v>
       </c>
       <c r="S26" t="n">
-        <v>781.4254660885883</v>
+        <v>808.3759261782952</v>
       </c>
       <c r="T26" t="n">
-        <v>646.3757522373597</v>
+        <v>808.3759261782952</v>
       </c>
       <c r="U26" t="n">
-        <v>646.3757522373597</v>
+        <v>779.0506389310365</v>
       </c>
       <c r="V26" t="n">
-        <v>473.7306092387354</v>
+        <v>779.0506389310365</v>
       </c>
       <c r="W26" t="n">
-        <v>245.8878768230296</v>
+        <v>779.0506389310365</v>
       </c>
       <c r="X26" t="n">
-        <v>245.8878768230296</v>
+        <v>779.0506389310365</v>
       </c>
       <c r="Y26" t="n">
-        <v>18.0451444073239</v>
+        <v>779.0506389310365</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>86.98297026993589</v>
+        <v>190.2033252374363</v>
       </c>
       <c r="C27" t="n">
-        <v>86.98297026993589</v>
+        <v>170.3656430828483</v>
       </c>
       <c r="D27" t="n">
-        <v>86.98297026993589</v>
+        <v>170.3656430828483</v>
       </c>
       <c r="E27" t="n">
-        <v>18.0451444073239</v>
+        <v>112.297717524507</v>
       </c>
       <c r="F27" t="n">
-        <v>18.0451444073239</v>
+        <v>66.93268899850628</v>
       </c>
       <c r="G27" t="n">
-        <v>18.0451444073239</v>
+        <v>29.37139302823607</v>
       </c>
       <c r="H27" t="n">
-        <v>18.0451444073239</v>
+        <v>17.17178688292967</v>
       </c>
       <c r="I27" t="n">
-        <v>18.0451444073239</v>
+        <v>17.17178688292967</v>
       </c>
       <c r="J27" t="n">
-        <v>18.0451444073239</v>
+        <v>17.17178688292967</v>
       </c>
       <c r="K27" t="n">
-        <v>18.0451444073239</v>
+        <v>142.5293469407671</v>
       </c>
       <c r="L27" t="n">
-        <v>241.3538064479571</v>
+        <v>355.0302096170218</v>
       </c>
       <c r="M27" t="n">
-        <v>426.9105221988814</v>
+        <v>567.5310722932766</v>
       </c>
       <c r="N27" t="n">
-        <v>650.2191842395146</v>
+        <v>606.5513080198034</v>
       </c>
       <c r="O27" t="n">
-        <v>650.2191842395146</v>
+        <v>606.5513080198034</v>
       </c>
       <c r="P27" t="n">
-        <v>832.8626618528654</v>
+        <v>789.1947856331543</v>
       </c>
       <c r="Q27" t="n">
-        <v>902.2572203661947</v>
+        <v>858.5893441464837</v>
       </c>
       <c r="R27" t="n">
-        <v>891.3873200619239</v>
+        <v>858.5893441464837</v>
       </c>
       <c r="S27" t="n">
-        <v>808.2696046554363</v>
+        <v>858.5893441464837</v>
       </c>
       <c r="T27" t="n">
-        <v>729.0735435642955</v>
+        <v>757.5722789523639</v>
       </c>
       <c r="U27" t="n">
-        <v>591.1495544435281</v>
+        <v>757.5722789523639</v>
       </c>
       <c r="V27" t="n">
-        <v>446.297075354629</v>
+        <v>623.5897001677356</v>
       </c>
       <c r="W27" t="n">
-        <v>282.3593477692708</v>
+        <v>470.5218728866482</v>
       </c>
       <c r="X27" t="n">
-        <v>282.3593477692708</v>
+        <v>363.8399021282297</v>
       </c>
       <c r="Y27" t="n">
-        <v>164.8986781471604</v>
+        <v>257.2491328103901</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>18.0451444073239</v>
+        <v>299.1765681302949</v>
       </c>
       <c r="C28" t="n">
-        <v>18.0451444073239</v>
+        <v>231.4099146495023</v>
       </c>
       <c r="D28" t="n">
-        <v>18.0451444073239</v>
+        <v>182.4628046842808</v>
       </c>
       <c r="E28" t="n">
-        <v>18.0451444073239</v>
+        <v>135.719240549002</v>
       </c>
       <c r="F28" t="n">
-        <v>18.0451444073239</v>
+        <v>135.719240549002</v>
       </c>
       <c r="G28" t="n">
-        <v>18.0451444073239</v>
+        <v>135.719240549002</v>
       </c>
       <c r="H28" t="n">
-        <v>18.0451444073239</v>
+        <v>73.02293918052074</v>
       </c>
       <c r="I28" t="n">
-        <v>18.0451444073239</v>
+        <v>17.17178688292967</v>
       </c>
       <c r="J28" t="n">
-        <v>18.0451444073239</v>
+        <v>23.90245437854033</v>
       </c>
       <c r="K28" t="n">
-        <v>84.5010140226008</v>
+        <v>101.011913282033</v>
       </c>
       <c r="L28" t="n">
-        <v>200.3178055532147</v>
+        <v>227.4822941008627</v>
       </c>
       <c r="M28" t="n">
-        <v>328.0085102683378</v>
+        <v>365.8265881042016</v>
       </c>
       <c r="N28" t="n">
-        <v>460.2020274466751</v>
+        <v>508.6736945707546</v>
       </c>
       <c r="O28" t="n">
-        <v>573.0439706044752</v>
+        <v>632.1692270167706</v>
       </c>
       <c r="P28" t="n">
-        <v>658.8524107996208</v>
+        <v>728.6312565001318</v>
       </c>
       <c r="Q28" t="n">
-        <v>662.0546545033443</v>
+        <v>742.487089492071</v>
       </c>
       <c r="R28" t="n">
-        <v>573.2700499318752</v>
+        <v>742.487089492071</v>
       </c>
       <c r="S28" t="n">
-        <v>437.290287118181</v>
+        <v>742.487089492071</v>
       </c>
       <c r="T28" t="n">
-        <v>297.3418461314473</v>
+        <v>613.4085488096081</v>
       </c>
       <c r="U28" t="n">
-        <v>98.43033451015853</v>
+        <v>613.4085488096081</v>
       </c>
       <c r="V28" t="n">
-        <v>98.43033451015853</v>
+        <v>459.8935900508355</v>
       </c>
       <c r="W28" t="n">
-        <v>98.43033451015853</v>
+        <v>418.7996178267107</v>
       </c>
       <c r="X28" t="n">
-        <v>98.43033451015853</v>
+        <v>418.7996178267107</v>
       </c>
       <c r="Y28" t="n">
-        <v>98.43033451015853</v>
+        <v>299.1765681302949</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>473.7306092387354</v>
+        <v>698.4140722049597</v>
       </c>
       <c r="C29" t="n">
-        <v>473.7306092387354</v>
+        <v>698.4140722049597</v>
       </c>
       <c r="D29" t="n">
-        <v>473.7306092387354</v>
+        <v>562.2351479849547</v>
       </c>
       <c r="E29" t="n">
-        <v>245.8878768230296</v>
+        <v>345.4196570388729</v>
       </c>
       <c r="F29" t="n">
-        <v>18.0451444073239</v>
+        <v>345.4196570388729</v>
       </c>
       <c r="G29" t="n">
-        <v>18.0451444073239</v>
+        <v>128.6041660927911</v>
       </c>
       <c r="H29" t="n">
-        <v>18.0451444073239</v>
+        <v>128.6041660927911</v>
       </c>
       <c r="I29" t="n">
-        <v>18.0451444073239</v>
+        <v>17.17178688292967</v>
       </c>
       <c r="J29" t="n">
-        <v>18.0451444073239</v>
+        <v>17.17178688292967</v>
       </c>
       <c r="K29" t="n">
-        <v>60.49621387669362</v>
+        <v>110.963157535683</v>
       </c>
       <c r="L29" t="n">
-        <v>240.5720654613522</v>
+        <v>291.0390091203416</v>
       </c>
       <c r="M29" t="n">
-        <v>457.5476927242564</v>
+        <v>503.5398717965963</v>
       </c>
       <c r="N29" t="n">
-        <v>663.4022149314957</v>
+        <v>709.3943940038356</v>
       </c>
       <c r="O29" t="n">
-        <v>812.5971650741437</v>
+        <v>858.5893441464837</v>
       </c>
       <c r="P29" t="n">
-        <v>902.2572203661947</v>
+        <v>858.5893441464837</v>
       </c>
       <c r="Q29" t="n">
-        <v>902.2572203661947</v>
+        <v>858.5893441464837</v>
       </c>
       <c r="R29" t="n">
-        <v>841.1739020937355</v>
+        <v>808.3759261782952</v>
       </c>
       <c r="S29" t="n">
-        <v>841.1739020937355</v>
+        <v>698.4140722049597</v>
       </c>
       <c r="T29" t="n">
-        <v>841.1739020937355</v>
+        <v>698.4140722049597</v>
       </c>
       <c r="U29" t="n">
-        <v>841.1739020937355</v>
+        <v>698.4140722049597</v>
       </c>
       <c r="V29" t="n">
-        <v>841.1739020937355</v>
+        <v>698.4140722049597</v>
       </c>
       <c r="W29" t="n">
-        <v>613.3311696780297</v>
+        <v>698.4140722049597</v>
       </c>
       <c r="X29" t="n">
-        <v>613.3311696780297</v>
+        <v>698.4140722049597</v>
       </c>
       <c r="Y29" t="n">
-        <v>473.7306092387354</v>
+        <v>698.4140722049597</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>54.20086442210739</v>
+        <v>221.1464914273504</v>
       </c>
       <c r="C30" t="n">
-        <v>18.0451444073239</v>
+        <v>147.8629915933377</v>
       </c>
       <c r="D30" t="n">
-        <v>18.0451444073239</v>
+        <v>100.0981113792006</v>
       </c>
       <c r="E30" t="n">
-        <v>18.0451444073239</v>
+        <v>100.0981113792006</v>
       </c>
       <c r="F30" t="n">
-        <v>18.0451444073239</v>
+        <v>54.73308285319988</v>
       </c>
       <c r="G30" t="n">
-        <v>18.0451444073239</v>
+        <v>17.17178688292967</v>
       </c>
       <c r="H30" t="n">
-        <v>18.0451444073239</v>
+        <v>17.17178688292967</v>
       </c>
       <c r="I30" t="n">
-        <v>18.0451444073239</v>
+        <v>17.17178688292967</v>
       </c>
       <c r="J30" t="n">
-        <v>18.0451444073239</v>
+        <v>17.17178688292967</v>
       </c>
       <c r="K30" t="n">
-        <v>18.0451444073239</v>
+        <v>142.5293469407671</v>
       </c>
       <c r="L30" t="n">
-        <v>18.0451444073239</v>
+        <v>355.0302096170218</v>
       </c>
       <c r="M30" t="n">
-        <v>241.3538064479571</v>
+        <v>567.5310722932766</v>
       </c>
       <c r="N30" t="n">
-        <v>464.6624684885903</v>
+        <v>780.0319349695312</v>
       </c>
       <c r="O30" t="n">
-        <v>650.2191842395146</v>
+        <v>789.1947856331543</v>
       </c>
       <c r="P30" t="n">
-        <v>832.8626618528654</v>
+        <v>789.1947856331543</v>
       </c>
       <c r="Q30" t="n">
-        <v>902.2572203661947</v>
+        <v>858.5893441464837</v>
       </c>
       <c r="R30" t="n">
-        <v>891.3873200619239</v>
+        <v>858.5893441464837</v>
       </c>
       <c r="S30" t="n">
-        <v>808.2696046554363</v>
+        <v>786.3415290442667</v>
       </c>
       <c r="T30" t="n">
-        <v>696.3826391570459</v>
+        <v>685.324463850147</v>
       </c>
       <c r="U30" t="n">
-        <v>558.4586500362785</v>
+        <v>685.324463850147</v>
       </c>
       <c r="V30" t="n">
-        <v>413.6061709473793</v>
+        <v>551.3418850655187</v>
       </c>
       <c r="W30" t="n">
-        <v>249.6684433620212</v>
+        <v>501.4650390765623</v>
       </c>
       <c r="X30" t="n">
-        <v>132.1165722993319</v>
+        <v>394.7830683181438</v>
       </c>
       <c r="Y30" t="n">
-        <v>132.1165722993319</v>
+        <v>288.1922990003042</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>18.0451444073239</v>
+        <v>17.17178688292967</v>
       </c>
       <c r="C31" t="n">
-        <v>18.0451444073239</v>
+        <v>17.17178688292967</v>
       </c>
       <c r="D31" t="n">
-        <v>18.0451444073239</v>
+        <v>17.17178688292967</v>
       </c>
       <c r="E31" t="n">
-        <v>18.0451444073239</v>
+        <v>17.17178688292967</v>
       </c>
       <c r="F31" t="n">
-        <v>18.0451444073239</v>
+        <v>17.17178688292967</v>
       </c>
       <c r="G31" t="n">
-        <v>18.0451444073239</v>
+        <v>17.17178688292967</v>
       </c>
       <c r="H31" t="n">
-        <v>18.0451444073239</v>
+        <v>17.17178688292967</v>
       </c>
       <c r="I31" t="n">
-        <v>18.0451444073239</v>
+        <v>17.17178688292967</v>
       </c>
       <c r="J31" t="n">
-        <v>18.0451444073239</v>
+        <v>23.90245437854033</v>
       </c>
       <c r="K31" t="n">
-        <v>84.5010140226008</v>
+        <v>101.011913282033</v>
       </c>
       <c r="L31" t="n">
-        <v>200.3178055532147</v>
+        <v>227.4822941008627</v>
       </c>
       <c r="M31" t="n">
-        <v>328.0085102683378</v>
+        <v>365.8265881042016</v>
       </c>
       <c r="N31" t="n">
-        <v>460.2020274466751</v>
+        <v>508.6736945707546</v>
       </c>
       <c r="O31" t="n">
-        <v>573.0439706044752</v>
+        <v>632.1692270167706</v>
       </c>
       <c r="P31" t="n">
-        <v>658.8524107996208</v>
+        <v>728.6312565001318</v>
       </c>
       <c r="Q31" t="n">
-        <v>662.0546545033443</v>
+        <v>742.487089492071</v>
       </c>
       <c r="R31" t="n">
-        <v>573.2700499318752</v>
+        <v>664.5723852248727</v>
       </c>
       <c r="S31" t="n">
-        <v>437.290287118181</v>
+        <v>539.4625227154494</v>
       </c>
       <c r="T31" t="n">
-        <v>297.3418461314473</v>
+        <v>410.3839820329864</v>
       </c>
       <c r="U31" t="n">
-        <v>98.43033451015853</v>
+        <v>410.3839820329864</v>
       </c>
       <c r="V31" t="n">
-        <v>98.43033451015853</v>
+        <v>332.239448923679</v>
       </c>
       <c r="W31" t="n">
-        <v>18.0451444073239</v>
+        <v>143.9918083338327</v>
       </c>
       <c r="X31" t="n">
-        <v>18.0451444073239</v>
+        <v>17.17178688292967</v>
       </c>
       <c r="Y31" t="n">
-        <v>18.0451444073239</v>
+        <v>17.17178688292967</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>245.8878768230296</v>
+        <v>274.9643430297866</v>
       </c>
       <c r="C32" t="n">
-        <v>245.8878768230296</v>
+        <v>233.9872778290114</v>
       </c>
       <c r="D32" t="n">
-        <v>245.8878768230296</v>
+        <v>233.9872778290114</v>
       </c>
       <c r="E32" t="n">
-        <v>245.8878768230296</v>
+        <v>233.9872778290114</v>
       </c>
       <c r="F32" t="n">
-        <v>245.8878768230296</v>
+        <v>17.17178688292967</v>
       </c>
       <c r="G32" t="n">
-        <v>18.0451444073239</v>
+        <v>17.17178688292967</v>
       </c>
       <c r="H32" t="n">
-        <v>18.0451444073239</v>
+        <v>17.17178688292967</v>
       </c>
       <c r="I32" t="n">
-        <v>18.0451444073239</v>
+        <v>17.17178688292967</v>
       </c>
       <c r="J32" t="n">
-        <v>18.0451444073239</v>
+        <v>17.17178688292967</v>
       </c>
       <c r="K32" t="n">
-        <v>60.49621387669362</v>
+        <v>120.186792793852</v>
       </c>
       <c r="L32" t="n">
-        <v>240.5720654613522</v>
+        <v>300.2626443785106</v>
       </c>
       <c r="M32" t="n">
-        <v>457.5476927242564</v>
+        <v>512.7635070547653</v>
       </c>
       <c r="N32" t="n">
-        <v>663.4022149314957</v>
+        <v>718.6180292620047</v>
       </c>
       <c r="O32" t="n">
-        <v>812.5971650741437</v>
+        <v>768.9292888544327</v>
       </c>
       <c r="P32" t="n">
-        <v>902.2572203661947</v>
+        <v>858.5893441464837</v>
       </c>
       <c r="Q32" t="n">
-        <v>902.2572203661947</v>
+        <v>858.5893441464837</v>
       </c>
       <c r="R32" t="n">
-        <v>864.2434085433126</v>
+        <v>820.5755323236016</v>
       </c>
       <c r="S32" t="n">
-        <v>766.4811607152834</v>
+        <v>820.5755323236016</v>
       </c>
       <c r="T32" t="n">
-        <v>701.5733416544412</v>
+        <v>708.5953249219501</v>
       </c>
       <c r="U32" t="n">
-        <v>701.5733416544412</v>
+        <v>708.5953249219501</v>
       </c>
       <c r="V32" t="n">
-        <v>701.5733416544412</v>
+        <v>708.5953249219501</v>
       </c>
       <c r="W32" t="n">
-        <v>473.7306092387354</v>
+        <v>708.5953249219501</v>
       </c>
       <c r="X32" t="n">
-        <v>473.7306092387354</v>
+        <v>491.7798339758684</v>
       </c>
       <c r="Y32" t="n">
-        <v>245.8878768230296</v>
+        <v>491.7798339758684</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>132.1661467008851</v>
+        <v>88.49827048117399</v>
       </c>
       <c r="C33" t="n">
-        <v>71.08225301217874</v>
+        <v>27.41437679246764</v>
       </c>
       <c r="D33" t="n">
-        <v>35.51697894334814</v>
+        <v>27.41437679246764</v>
       </c>
       <c r="E33" t="n">
-        <v>18.0451444073239</v>
+        <v>17.17178688292967</v>
       </c>
       <c r="F33" t="n">
-        <v>18.0451444073239</v>
+        <v>17.17178688292967</v>
       </c>
       <c r="G33" t="n">
-        <v>18.0451444073239</v>
+        <v>17.17178688292967</v>
       </c>
       <c r="H33" t="n">
-        <v>18.0451444073239</v>
+        <v>17.17178688292967</v>
       </c>
       <c r="I33" t="n">
-        <v>18.0451444073239</v>
+        <v>17.17178688292967</v>
       </c>
       <c r="J33" t="n">
-        <v>18.0451444073239</v>
+        <v>17.17178688292967</v>
       </c>
       <c r="K33" t="n">
-        <v>143.4027044651613</v>
+        <v>17.17178688292967</v>
       </c>
       <c r="L33" t="n">
-        <v>143.4027044651613</v>
+        <v>17.17178688292967</v>
       </c>
       <c r="M33" t="n">
-        <v>366.7113665057944</v>
+        <v>229.6726495591844</v>
       </c>
       <c r="N33" t="n">
-        <v>590.0200285464276</v>
+        <v>442.1735122354391</v>
       </c>
       <c r="O33" t="n">
-        <v>650.2191842395146</v>
+        <v>654.6743749116938</v>
       </c>
       <c r="P33" t="n">
-        <v>832.8626618528654</v>
+        <v>837.3178525250446</v>
       </c>
       <c r="Q33" t="n">
-        <v>902.2572203661947</v>
+        <v>858.5893441464837</v>
       </c>
       <c r="R33" t="n">
-        <v>902.2572203661947</v>
+        <v>858.5893441464837</v>
       </c>
       <c r="S33" t="n">
-        <v>842.2090114092842</v>
+        <v>798.5411351895732</v>
       </c>
       <c r="T33" t="n">
-        <v>753.391552360471</v>
+        <v>709.7236761407599</v>
       </c>
       <c r="U33" t="n">
-        <v>638.5370696892808</v>
+        <v>594.8691934695697</v>
       </c>
       <c r="V33" t="n">
-        <v>516.7540970499588</v>
+        <v>473.0862208302477</v>
       </c>
       <c r="W33" t="n">
-        <v>375.8858759141778</v>
+        <v>332.2179996944667</v>
       </c>
       <c r="X33" t="n">
-        <v>281.4035113010657</v>
+        <v>237.7356350813546</v>
       </c>
       <c r="Y33" t="n">
-        <v>187.0123481285324</v>
+        <v>143.3444719088213</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>43.45372752882443</v>
+        <v>328.0180716546691</v>
       </c>
       <c r="C34" t="n">
-        <v>43.45372752882443</v>
+        <v>272.4510243191829</v>
       </c>
       <c r="D34" t="n">
-        <v>43.45372752882443</v>
+        <v>235.7035204992678</v>
       </c>
       <c r="E34" t="n">
-        <v>18.0451444073239</v>
+        <v>201.1595625092954</v>
       </c>
       <c r="F34" t="n">
-        <v>18.0451444073239</v>
+        <v>167.6387506038057</v>
       </c>
       <c r="G34" t="n">
-        <v>18.0451444073239</v>
+        <v>111.3200282583892</v>
       </c>
       <c r="H34" t="n">
-        <v>18.0451444073239</v>
+        <v>60.82333303521435</v>
       </c>
       <c r="I34" t="n">
-        <v>18.0451444073239</v>
+        <v>17.17178688292967</v>
       </c>
       <c r="J34" t="n">
-        <v>36.73264588594935</v>
+        <v>35.85928836155512</v>
       </c>
       <c r="K34" t="n">
-        <v>125.7989387724568</v>
+        <v>124.9255812480626</v>
       </c>
       <c r="L34" t="n">
-        <v>264.2261535743013</v>
+        <v>263.3527960499071</v>
       </c>
       <c r="M34" t="n">
-        <v>414.527281560655</v>
+        <v>413.6539240362607</v>
       </c>
       <c r="N34" t="n">
-        <v>569.3312220102227</v>
+        <v>568.4578644858285</v>
       </c>
       <c r="O34" t="n">
-        <v>704.7835884392534</v>
+        <v>703.9102309148593</v>
       </c>
       <c r="P34" t="n">
-        <v>813.2024519056295</v>
+        <v>812.3290943812353</v>
       </c>
       <c r="Q34" t="n">
-        <v>839.0151188805835</v>
+        <v>838.1417613561894</v>
       </c>
       <c r="R34" t="n">
-        <v>773.3000207586915</v>
+        <v>772.4266632342974</v>
       </c>
       <c r="S34" t="n">
-        <v>660.3897643945745</v>
+        <v>659.5164068701804</v>
       </c>
       <c r="T34" t="n">
-        <v>543.5108298574179</v>
+        <v>659.5164068701804</v>
       </c>
       <c r="U34" t="n">
-        <v>367.6688246857063</v>
+        <v>659.5164068701804</v>
       </c>
       <c r="V34" t="n">
-        <v>226.3534720722401</v>
+        <v>659.5164068701804</v>
       </c>
       <c r="W34" t="n">
-        <v>226.3534720722401</v>
+        <v>618.3412597491941</v>
       </c>
       <c r="X34" t="n">
-        <v>111.7330567666435</v>
+        <v>503.7208444435975</v>
       </c>
       <c r="Y34" t="n">
-        <v>111.7330567666435</v>
+        <v>396.2974008924881</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>245.8878768230296</v>
+        <v>424.9583622543201</v>
       </c>
       <c r="C35" t="n">
-        <v>245.8878768230296</v>
+        <v>424.9583622543201</v>
       </c>
       <c r="D35" t="n">
-        <v>245.8878768230296</v>
+        <v>424.9583622543201</v>
       </c>
       <c r="E35" t="n">
-        <v>245.8878768230296</v>
+        <v>424.9583622543201</v>
       </c>
       <c r="F35" t="n">
-        <v>18.0451444073239</v>
+        <v>208.1428713082383</v>
       </c>
       <c r="G35" t="n">
-        <v>18.0451444073239</v>
+        <v>17.17178688292967</v>
       </c>
       <c r="H35" t="n">
-        <v>18.0451444073239</v>
+        <v>17.17178688292967</v>
       </c>
       <c r="I35" t="n">
-        <v>18.0451444073239</v>
+        <v>17.17178688292967</v>
       </c>
       <c r="J35" t="n">
-        <v>18.0451444073239</v>
+        <v>17.17178688292967</v>
       </c>
       <c r="K35" t="n">
-        <v>121.0601503182463</v>
+        <v>110.963157535683</v>
       </c>
       <c r="L35" t="n">
-        <v>301.1360019029048</v>
+        <v>291.0390091203416</v>
       </c>
       <c r="M35" t="n">
-        <v>518.1116291658089</v>
+        <v>503.5398717965963</v>
       </c>
       <c r="N35" t="n">
-        <v>663.4022149314957</v>
+        <v>709.3943940038356</v>
       </c>
       <c r="O35" t="n">
-        <v>812.5971650741437</v>
+        <v>858.5893441464837</v>
       </c>
       <c r="P35" t="n">
-        <v>902.2572203661947</v>
+        <v>858.5893441464837</v>
       </c>
       <c r="Q35" t="n">
-        <v>902.2572203661947</v>
+        <v>858.5893441464837</v>
       </c>
       <c r="R35" t="n">
-        <v>864.2434085433126</v>
+        <v>858.5893441464837</v>
       </c>
       <c r="S35" t="n">
-        <v>842.0887039487241</v>
+        <v>858.5893441464837</v>
       </c>
       <c r="T35" t="n">
-        <v>842.0887039487241</v>
+        <v>858.5893441464837</v>
       </c>
       <c r="U35" t="n">
-        <v>701.5733416544412</v>
+        <v>858.5893441464837</v>
       </c>
       <c r="V35" t="n">
-        <v>701.5733416544412</v>
+        <v>858.5893441464837</v>
       </c>
       <c r="W35" t="n">
-        <v>701.5733416544412</v>
+        <v>858.5893441464837</v>
       </c>
       <c r="X35" t="n">
-        <v>701.5733416544412</v>
+        <v>858.5893441464837</v>
       </c>
       <c r="Y35" t="n">
-        <v>473.7306092387354</v>
+        <v>641.7738532004018</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>132.1661467008851</v>
+        <v>218.2163862591596</v>
       </c>
       <c r="C36" t="n">
-        <v>112.1375306818127</v>
+        <v>157.1324925704533</v>
       </c>
       <c r="D36" t="n">
-        <v>76.57225661298207</v>
+        <v>121.5672185016227</v>
       </c>
       <c r="E36" t="n">
-        <v>76.57225661298207</v>
+        <v>75.69889908858784</v>
       </c>
       <c r="F36" t="n">
-        <v>43.40683423228771</v>
+        <v>42.53347670789348</v>
       </c>
       <c r="G36" t="n">
-        <v>18.0451444073239</v>
+        <v>17.17178688292967</v>
       </c>
       <c r="H36" t="n">
-        <v>18.0451444073239</v>
+        <v>17.17178688292967</v>
       </c>
       <c r="I36" t="n">
-        <v>18.0451444073239</v>
+        <v>17.17178688292967</v>
       </c>
       <c r="J36" t="n">
-        <v>18.0451444073239</v>
+        <v>17.17178688292967</v>
       </c>
       <c r="K36" t="n">
-        <v>18.0451444073239</v>
+        <v>142.5293469407671</v>
       </c>
       <c r="L36" t="n">
-        <v>203.6018601582482</v>
+        <v>355.0302096170218</v>
       </c>
       <c r="M36" t="n">
-        <v>203.6018601582482</v>
+        <v>567.5310722932766</v>
       </c>
       <c r="N36" t="n">
-        <v>426.9105221988814</v>
+        <v>780.0319349695312</v>
       </c>
       <c r="O36" t="n">
-        <v>650.2191842395146</v>
+        <v>858.5893441464837</v>
       </c>
       <c r="P36" t="n">
-        <v>832.8626618528654</v>
+        <v>858.5893441464837</v>
       </c>
       <c r="Q36" t="n">
-        <v>902.2572203661947</v>
+        <v>858.5893441464837</v>
       </c>
       <c r="R36" t="n">
-        <v>902.2572203661947</v>
+        <v>858.5893441464837</v>
       </c>
       <c r="S36" t="n">
-        <v>842.2090114092842</v>
+        <v>798.5411351895732</v>
       </c>
       <c r="T36" t="n">
-        <v>753.391552360471</v>
+        <v>709.7236761407599</v>
       </c>
       <c r="U36" t="n">
-        <v>638.5370696892808</v>
+        <v>594.8691934695697</v>
       </c>
       <c r="V36" t="n">
-        <v>516.7540970499588</v>
+        <v>473.0862208302477</v>
       </c>
       <c r="W36" t="n">
-        <v>375.8858759141778</v>
+        <v>332.2179996944667</v>
       </c>
       <c r="X36" t="n">
-        <v>281.4035113010657</v>
+        <v>332.2179996944667</v>
       </c>
       <c r="Y36" t="n">
-        <v>187.0123481285324</v>
+        <v>273.062587686807</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>18.0451444073239</v>
+        <v>156.7563413470805</v>
       </c>
       <c r="C37" t="n">
-        <v>18.0451444073239</v>
+        <v>101.1892940115942</v>
       </c>
       <c r="D37" t="n">
-        <v>18.0451444073239</v>
+        <v>101.1892940115942</v>
       </c>
       <c r="E37" t="n">
-        <v>18.0451444073239</v>
+        <v>101.1892940115942</v>
       </c>
       <c r="F37" t="n">
-        <v>18.0451444073239</v>
+        <v>67.66848210610453</v>
       </c>
       <c r="G37" t="n">
-        <v>18.0451444073239</v>
+        <v>67.66848210610453</v>
       </c>
       <c r="H37" t="n">
-        <v>18.0451444073239</v>
+        <v>17.17178688292967</v>
       </c>
       <c r="I37" t="n">
-        <v>18.0451444073239</v>
+        <v>17.17178688292967</v>
       </c>
       <c r="J37" t="n">
-        <v>36.73264588594935</v>
+        <v>35.85928836155512</v>
       </c>
       <c r="K37" t="n">
-        <v>125.7989387724568</v>
+        <v>124.9255812480626</v>
       </c>
       <c r="L37" t="n">
-        <v>264.2261535743013</v>
+        <v>263.3527960499071</v>
       </c>
       <c r="M37" t="n">
-        <v>414.527281560655</v>
+        <v>413.6539240362607</v>
       </c>
       <c r="N37" t="n">
-        <v>569.3312220102227</v>
+        <v>568.4578644858285</v>
       </c>
       <c r="O37" t="n">
-        <v>704.7835884392534</v>
+        <v>703.9102309148593</v>
       </c>
       <c r="P37" t="n">
-        <v>813.2024519056295</v>
+        <v>812.3290943812353</v>
       </c>
       <c r="Q37" t="n">
-        <v>839.0151188805835</v>
+        <v>838.1417613561894</v>
       </c>
       <c r="R37" t="n">
-        <v>773.3000207586915</v>
+        <v>838.1417613561894</v>
       </c>
       <c r="S37" t="n">
-        <v>660.3897643945745</v>
+        <v>725.2315049920724</v>
       </c>
       <c r="T37" t="n">
-        <v>543.5108298574179</v>
+        <v>725.2315049920724</v>
       </c>
       <c r="U37" t="n">
-        <v>367.6688246857063</v>
+        <v>725.2315049920724</v>
       </c>
       <c r="V37" t="n">
-        <v>226.3534720722401</v>
+        <v>583.9161523786062</v>
       </c>
       <c r="W37" t="n">
-        <v>50.30543762770017</v>
+        <v>407.8681179340662</v>
       </c>
       <c r="X37" t="n">
-        <v>50.30543762770017</v>
+        <v>293.2477026284695</v>
       </c>
       <c r="Y37" t="n">
-        <v>50.30543762770017</v>
+        <v>225.0356705848995</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.4261746599076</v>
+        <v>238.7863570369753</v>
       </c>
       <c r="C38" t="n">
-        <v>141.4261746599076</v>
+        <v>233.9872778290114</v>
       </c>
       <c r="D38" t="n">
-        <v>141.4261746599076</v>
+        <v>233.9872778290114</v>
       </c>
       <c r="E38" t="n">
-        <v>141.4261746599076</v>
+        <v>233.9872778290114</v>
       </c>
       <c r="F38" t="n">
-        <v>18.0451444073239</v>
+        <v>17.17178688292967</v>
       </c>
       <c r="G38" t="n">
-        <v>18.0451444073239</v>
+        <v>17.17178688292967</v>
       </c>
       <c r="H38" t="n">
-        <v>18.0451444073239</v>
+        <v>17.17178688292967</v>
       </c>
       <c r="I38" t="n">
-        <v>18.0451444073239</v>
+        <v>17.17178688292967</v>
       </c>
       <c r="J38" t="n">
-        <v>18.0451444073239</v>
+        <v>17.17178688292967</v>
       </c>
       <c r="K38" t="n">
-        <v>121.0601503182463</v>
+        <v>21.30310224363203</v>
       </c>
       <c r="L38" t="n">
-        <v>240.5720654613522</v>
+        <v>201.3789538282906</v>
       </c>
       <c r="M38" t="n">
-        <v>457.5476927242564</v>
+        <v>413.8798165045453</v>
       </c>
       <c r="N38" t="n">
-        <v>663.4022149314957</v>
+        <v>619.7343387117846</v>
       </c>
       <c r="O38" t="n">
-        <v>812.5971650741437</v>
+        <v>768.9292888544327</v>
       </c>
       <c r="P38" t="n">
-        <v>902.2572203661947</v>
+        <v>858.5893441464837</v>
       </c>
       <c r="Q38" t="n">
-        <v>902.2572203661947</v>
+        <v>858.5893441464837</v>
       </c>
       <c r="R38" t="n">
-        <v>824.9543719070249</v>
+        <v>783.0828274420649</v>
       </c>
       <c r="S38" t="n">
-        <v>824.9543719070249</v>
+        <v>783.0828274420649</v>
       </c>
       <c r="T38" t="n">
-        <v>824.9543719070249</v>
+        <v>633.6099151588767</v>
       </c>
       <c r="U38" t="n">
-        <v>824.9543719070249</v>
+        <v>455.601847983057</v>
       </c>
       <c r="V38" t="n">
-        <v>597.1116394913191</v>
+        <v>238.7863570369753</v>
       </c>
       <c r="W38" t="n">
-        <v>369.2689070756134</v>
+        <v>238.7863570369753</v>
       </c>
       <c r="X38" t="n">
-        <v>369.2689070756134</v>
+        <v>238.7863570369753</v>
       </c>
       <c r="Y38" t="n">
-        <v>141.4261746599076</v>
+        <v>238.7863570369753</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>132.1884917487301</v>
+        <v>342.8255159603428</v>
       </c>
       <c r="C39" t="n">
-        <v>132.1884917487301</v>
+        <v>244.2489173900997</v>
       </c>
       <c r="D39" t="n">
-        <v>57.33418104361167</v>
+        <v>171.1909384397324</v>
       </c>
       <c r="E39" t="n">
-        <v>57.33418104361167</v>
+        <v>87.82991414516079</v>
       </c>
       <c r="F39" t="n">
-        <v>57.33418104361167</v>
+        <v>17.17178688292967</v>
       </c>
       <c r="G39" t="n">
-        <v>57.33418104361167</v>
+        <v>17.17178688292967</v>
       </c>
       <c r="H39" t="n">
-        <v>18.0451444073239</v>
+        <v>17.17178688292967</v>
       </c>
       <c r="I39" t="n">
-        <v>18.0451444073239</v>
+        <v>17.17178688292967</v>
       </c>
       <c r="J39" t="n">
-        <v>18.0451444073239</v>
+        <v>17.17178688292967</v>
       </c>
       <c r="K39" t="n">
-        <v>18.0451444073239</v>
+        <v>142.5293469407671</v>
       </c>
       <c r="L39" t="n">
-        <v>241.3538064479571</v>
+        <v>355.0302096170218</v>
       </c>
       <c r="M39" t="n">
-        <v>241.3538064479571</v>
+        <v>567.5310722932766</v>
       </c>
       <c r="N39" t="n">
-        <v>426.9105221988814</v>
+        <v>606.5513080198034</v>
       </c>
       <c r="O39" t="n">
-        <v>650.2191842395146</v>
+        <v>606.5513080198034</v>
       </c>
       <c r="P39" t="n">
-        <v>832.8626618528654</v>
+        <v>789.1947856331543</v>
       </c>
       <c r="Q39" t="n">
-        <v>902.2572203661947</v>
+        <v>858.5893441464837</v>
       </c>
       <c r="R39" t="n">
-        <v>902.2572203661947</v>
+        <v>858.5893441464837</v>
       </c>
       <c r="S39" t="n">
-        <v>802.9199747729965</v>
+        <v>858.5893441464837</v>
       </c>
       <c r="T39" t="n">
-        <v>674.8134790878954</v>
+        <v>732.2791802161336</v>
       </c>
       <c r="U39" t="n">
-        <v>520.6699597804173</v>
+        <v>633.9850615352716</v>
       </c>
       <c r="V39" t="n">
-        <v>446.0259493296198</v>
+        <v>474.7093840144129</v>
       </c>
       <c r="W39" t="n">
-        <v>265.8686915575511</v>
+        <v>474.7093840144129</v>
       </c>
       <c r="X39" t="n">
-        <v>265.8686915575511</v>
+        <v>474.7093840144129</v>
       </c>
       <c r="Y39" t="n">
-        <v>132.1884917487301</v>
+        <v>342.8255159603428</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>18.0451444073239</v>
+        <v>105.1611869876413</v>
       </c>
       <c r="C40" t="n">
-        <v>18.0451444073239</v>
+        <v>105.1611869876413</v>
       </c>
       <c r="D40" t="n">
-        <v>18.0451444073239</v>
+        <v>105.1611869876413</v>
       </c>
       <c r="E40" t="n">
-        <v>18.0451444073239</v>
+        <v>105.1611869876413</v>
       </c>
       <c r="F40" t="n">
-        <v>18.0451444073239</v>
+        <v>105.1611869876413</v>
       </c>
       <c r="G40" t="n">
-        <v>18.0451444073239</v>
+        <v>105.1611869876413</v>
       </c>
       <c r="H40" t="n">
-        <v>18.0451444073239</v>
+        <v>17.17178688292967</v>
       </c>
       <c r="I40" t="n">
-        <v>18.0451444073239</v>
+        <v>17.17178688292967</v>
       </c>
       <c r="J40" t="n">
-        <v>18.0451444073239</v>
+        <v>17.17178688292967</v>
       </c>
       <c r="K40" t="n">
-        <v>68.60425248660573</v>
+        <v>69.49147971504297</v>
       </c>
       <c r="L40" t="n">
-        <v>168.5242824812246</v>
+        <v>171.1720944624933</v>
       </c>
       <c r="M40" t="n">
-        <v>280.3182256603526</v>
+        <v>284.7266223944528</v>
       </c>
       <c r="N40" t="n">
-        <v>396.6149813026947</v>
+        <v>402.7839627896264</v>
       </c>
       <c r="O40" t="n">
-        <v>493.5601629244999</v>
+        <v>501.489729164263</v>
       </c>
       <c r="P40" t="n">
-        <v>563.4718415836503</v>
+        <v>573.1619925762449</v>
       </c>
       <c r="Q40" t="n">
-        <v>550.5195736188798</v>
+        <v>573.1619925762449</v>
       </c>
       <c r="R40" t="n">
-        <v>445.5154388607001</v>
+        <v>573.1619925762449</v>
       </c>
       <c r="S40" t="n">
-        <v>293.3161458602954</v>
+        <v>573.1619925762449</v>
       </c>
       <c r="T40" t="n">
-        <v>137.148174686851</v>
+        <v>470.8150465008514</v>
       </c>
       <c r="U40" t="n">
-        <v>137.148174686851</v>
+        <v>470.8150465008514</v>
       </c>
       <c r="V40" t="n">
-        <v>137.148174686851</v>
+        <v>470.8150465008514</v>
       </c>
       <c r="W40" t="n">
-        <v>18.0451444073239</v>
+        <v>257.2743071747747</v>
       </c>
       <c r="X40" t="n">
-        <v>18.0451444073239</v>
+        <v>105.1611869876413</v>
       </c>
       <c r="Y40" t="n">
-        <v>18.0451444073239</v>
+        <v>105.1611869876413</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>239.6201608130949</v>
+        <v>114.2252559652484</v>
       </c>
       <c r="C41" t="n">
-        <v>239.6201608130949</v>
+        <v>114.2252559652484</v>
       </c>
       <c r="D41" t="n">
-        <v>239.6201608130949</v>
+        <v>114.2252559652484</v>
       </c>
       <c r="E41" t="n">
-        <v>239.6201608130949</v>
+        <v>8.593671248931065</v>
       </c>
       <c r="F41" t="n">
-        <v>239.6201608130949</v>
+        <v>8.593671248931065</v>
       </c>
       <c r="G41" t="n">
-        <v>117.3649767247812</v>
+        <v>8.593671248931065</v>
       </c>
       <c r="H41" t="n">
-        <v>117.3649767247812</v>
+        <v>8.593671248931065</v>
       </c>
       <c r="I41" t="n">
-        <v>9.682610579794448</v>
+        <v>8.593671248931065</v>
       </c>
       <c r="J41" t="n">
-        <v>9.682610579794448</v>
+        <v>8.593671248931065</v>
       </c>
       <c r="K41" t="n">
-        <v>112.6976164907168</v>
+        <v>111.6086771598534</v>
       </c>
       <c r="L41" t="n">
-        <v>124.6636112148535</v>
+        <v>216.9901990355094</v>
       </c>
       <c r="M41" t="n">
-        <v>244.4859171398098</v>
+        <v>323.3368807410313</v>
       </c>
       <c r="N41" t="n">
-        <v>364.3082230647661</v>
+        <v>429.6835624465532</v>
       </c>
       <c r="O41" t="n">
-        <v>484.1305289897224</v>
+        <v>429.6835624465532</v>
       </c>
       <c r="P41" t="n">
-        <v>484.1305289897224</v>
+        <v>429.6835624465532</v>
       </c>
       <c r="Q41" t="n">
-        <v>484.1305289897224</v>
+        <v>429.6835624465532</v>
       </c>
       <c r="R41" t="n">
-        <v>484.1305289897224</v>
+        <v>331.2371561907803</v>
       </c>
       <c r="S41" t="n">
-        <v>484.1305289897224</v>
+        <v>331.2371561907803</v>
       </c>
       <c r="T41" t="n">
-        <v>484.1305289897224</v>
+        <v>331.2371561907803</v>
       </c>
       <c r="U41" t="n">
-        <v>484.1305289897224</v>
+        <v>331.2371561907803</v>
       </c>
       <c r="V41" t="n">
-        <v>484.1305289897224</v>
+        <v>331.2371561907803</v>
       </c>
       <c r="W41" t="n">
-        <v>484.1305289897224</v>
+        <v>222.7312060780143</v>
       </c>
       <c r="X41" t="n">
-        <v>361.8753449014087</v>
+        <v>114.2252559652484</v>
       </c>
       <c r="Y41" t="n">
-        <v>239.6201608130949</v>
+        <v>114.2252559652484</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>9.682610579794448</v>
+        <v>114.8945850948568</v>
       </c>
       <c r="C42" t="n">
-        <v>9.682610579794448</v>
+        <v>114.8945850948568</v>
       </c>
       <c r="D42" t="n">
-        <v>9.682610579794448</v>
+        <v>114.8945850948568</v>
       </c>
       <c r="E42" t="n">
-        <v>9.682610579794448</v>
+        <v>8.593671248931065</v>
       </c>
       <c r="F42" t="n">
-        <v>9.682610579794448</v>
+        <v>8.593671248931065</v>
       </c>
       <c r="G42" t="n">
-        <v>9.682610579794448</v>
+        <v>8.593671248931065</v>
       </c>
       <c r="H42" t="n">
-        <v>9.682610579794448</v>
+        <v>8.593671248931065</v>
       </c>
       <c r="I42" t="n">
-        <v>9.682610579794448</v>
+        <v>8.593671248931065</v>
       </c>
       <c r="J42" t="n">
-        <v>9.682610579794448</v>
+        <v>8.593671248931065</v>
       </c>
       <c r="K42" t="n">
-        <v>129.5049165047508</v>
+        <v>8.593671248931065</v>
       </c>
       <c r="L42" t="n">
-        <v>175.0913586264805</v>
+        <v>110.6435173299874</v>
       </c>
       <c r="M42" t="n">
-        <v>294.9136645514368</v>
+        <v>216.9901990355094</v>
       </c>
       <c r="N42" t="n">
-        <v>294.9136645514368</v>
+        <v>323.3368807410313</v>
       </c>
       <c r="O42" t="n">
-        <v>294.9136645514368</v>
+        <v>429.6835624465532</v>
       </c>
       <c r="P42" t="n">
-        <v>414.7359704763931</v>
+        <v>429.6835624465532</v>
       </c>
       <c r="Q42" t="n">
-        <v>484.1305289897224</v>
+        <v>429.6835624465532</v>
       </c>
       <c r="R42" t="n">
-        <v>484.1305289897224</v>
+        <v>429.6835624465532</v>
       </c>
       <c r="S42" t="n">
-        <v>372.7232941494408</v>
+        <v>331.9064853203887</v>
       </c>
       <c r="T42" t="n">
-        <v>372.7232941494408</v>
+        <v>223.4005352076227</v>
       </c>
       <c r="U42" t="n">
-        <v>250.468110061127</v>
+        <v>223.4005352076227</v>
       </c>
       <c r="V42" t="n">
-        <v>131.9377946681082</v>
+        <v>223.4005352076227</v>
       </c>
       <c r="W42" t="n">
-        <v>9.682610579794448</v>
+        <v>223.4005352076227</v>
       </c>
       <c r="X42" t="n">
-        <v>9.682610579794448</v>
+        <v>223.4005352076227</v>
       </c>
       <c r="Y42" t="n">
-        <v>9.682610579794448</v>
+        <v>223.4005352076227</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>9.682610579794448</v>
+        <v>8.593671248931065</v>
       </c>
       <c r="C43" t="n">
-        <v>9.682610579794448</v>
+        <v>8.593671248931065</v>
       </c>
       <c r="D43" t="n">
-        <v>9.682610579794448</v>
+        <v>8.593671248931065</v>
       </c>
       <c r="E43" t="n">
-        <v>9.682610579794448</v>
+        <v>8.593671248931065</v>
       </c>
       <c r="F43" t="n">
-        <v>9.682610579794448</v>
+        <v>8.593671248931065</v>
       </c>
       <c r="G43" t="n">
-        <v>9.682610579794448</v>
+        <v>8.593671248931065</v>
       </c>
       <c r="H43" t="n">
-        <v>9.682610579794448</v>
+        <v>8.593671248931065</v>
       </c>
       <c r="I43" t="n">
-        <v>9.682610579794448</v>
+        <v>8.593671248931065</v>
       </c>
       <c r="J43" t="n">
-        <v>9.682610579794448</v>
+        <v>8.593671248931065</v>
       </c>
       <c r="K43" t="n">
-        <v>48.41192219800988</v>
+        <v>38.42997833176219</v>
       </c>
       <c r="L43" t="n">
-        <v>136.5021557315623</v>
+        <v>117.6272073299303</v>
       </c>
       <c r="M43" t="n">
-        <v>236.466302449624</v>
+        <v>208.6983495126076</v>
       </c>
       <c r="N43" t="n">
-        <v>340.9332616308997</v>
+        <v>304.2723041584991</v>
       </c>
       <c r="O43" t="n">
-        <v>426.0486467916385</v>
+        <v>380.4946847838535</v>
       </c>
       <c r="P43" t="n">
-        <v>484.1305289897225</v>
+        <v>429.6835624465532</v>
       </c>
       <c r="Q43" t="n">
-        <v>459.1082717778686</v>
+        <v>395.5877366851796</v>
       </c>
       <c r="R43" t="n">
-        <v>342.0341477726055</v>
+        <v>395.5877366851796</v>
       </c>
       <c r="S43" t="n">
-        <v>254.1929787564219</v>
+        <v>287.0817865724136</v>
       </c>
       <c r="T43" t="n">
-        <v>131.9377946681082</v>
+        <v>178.5758364596477</v>
       </c>
       <c r="U43" t="n">
-        <v>131.9377946681082</v>
+        <v>178.5758364596477</v>
       </c>
       <c r="V43" t="n">
-        <v>9.682610579794448</v>
+        <v>117.099621361697</v>
       </c>
       <c r="W43" t="n">
-        <v>9.682610579794448</v>
+        <v>117.099621361697</v>
       </c>
       <c r="X43" t="n">
-        <v>9.682610579794448</v>
+        <v>8.593671248931065</v>
       </c>
       <c r="Y43" t="n">
-        <v>9.682610579794448</v>
+        <v>8.593671248931065</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>131.9377946681082</v>
+        <v>225.6055714744631</v>
       </c>
       <c r="C44" t="n">
-        <v>131.9377946681082</v>
+        <v>225.6055714744631</v>
       </c>
       <c r="D44" t="n">
-        <v>131.9377946681082</v>
+        <v>225.6055714744631</v>
       </c>
       <c r="E44" t="n">
-        <v>131.9377946681082</v>
+        <v>225.6055714744631</v>
       </c>
       <c r="F44" t="n">
-        <v>131.9377946681082</v>
+        <v>225.6055714744631</v>
       </c>
       <c r="G44" t="n">
-        <v>9.682610579794449</v>
+        <v>225.6055714744631</v>
       </c>
       <c r="H44" t="n">
-        <v>9.682610579794449</v>
+        <v>117.0996213616971</v>
       </c>
       <c r="I44" t="n">
-        <v>9.682610579794449</v>
+        <v>8.593671248931066</v>
       </c>
       <c r="J44" t="n">
-        <v>9.682610579794449</v>
+        <v>8.593671248931066</v>
       </c>
       <c r="K44" t="n">
-        <v>112.6976164907168</v>
+        <v>111.6086771598534</v>
       </c>
       <c r="L44" t="n">
-        <v>154.8258618477589</v>
+        <v>217.9553588653754</v>
       </c>
       <c r="M44" t="n">
-        <v>154.8258618477589</v>
+        <v>323.3368807410313</v>
       </c>
       <c r="N44" t="n">
-        <v>274.6481677727152</v>
+        <v>429.6835624465533</v>
       </c>
       <c r="O44" t="n">
-        <v>394.4704736976715</v>
+        <v>429.6835624465533</v>
       </c>
       <c r="P44" t="n">
-        <v>484.1305289897224</v>
+        <v>429.6835624465533</v>
       </c>
       <c r="Q44" t="n">
-        <v>484.1305289897224</v>
+        <v>429.6835624465533</v>
       </c>
       <c r="R44" t="n">
-        <v>484.1305289897224</v>
+        <v>429.6835624465533</v>
       </c>
       <c r="S44" t="n">
-        <v>484.1305289897224</v>
+        <v>429.6835624465533</v>
       </c>
       <c r="T44" t="n">
-        <v>484.1305289897224</v>
+        <v>321.1776123337873</v>
       </c>
       <c r="U44" t="n">
-        <v>376.4481628447357</v>
+        <v>321.1776123337873</v>
       </c>
       <c r="V44" t="n">
-        <v>376.4481628447357</v>
+        <v>225.6055714744631</v>
       </c>
       <c r="W44" t="n">
-        <v>376.4481628447357</v>
+        <v>225.6055714744631</v>
       </c>
       <c r="X44" t="n">
-        <v>376.4481628447357</v>
+        <v>225.6055714744631</v>
       </c>
       <c r="Y44" t="n">
-        <v>254.192978756422</v>
+        <v>225.6055714744631</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>96.60691053199619</v>
+        <v>210.6976381752823</v>
       </c>
       <c r="C45" t="n">
-        <v>96.60691053199619</v>
+        <v>102.1916880625163</v>
       </c>
       <c r="D45" t="n">
-        <v>9.682610579794449</v>
+        <v>102.1916880625163</v>
       </c>
       <c r="E45" t="n">
-        <v>9.682610579794449</v>
+        <v>102.1916880625163</v>
       </c>
       <c r="F45" t="n">
-        <v>9.682610579794449</v>
+        <v>8.593671248931066</v>
       </c>
       <c r="G45" t="n">
-        <v>9.682610579794449</v>
+        <v>8.593671248931066</v>
       </c>
       <c r="H45" t="n">
-        <v>9.682610579794449</v>
+        <v>8.593671248931066</v>
       </c>
       <c r="I45" t="n">
-        <v>9.682610579794449</v>
+        <v>8.593671248931066</v>
       </c>
       <c r="J45" t="n">
-        <v>9.682610579794449</v>
+        <v>8.593671248931066</v>
       </c>
       <c r="K45" t="n">
-        <v>55.26905270152423</v>
+        <v>8.593671248931066</v>
       </c>
       <c r="L45" t="n">
-        <v>175.0913586264805</v>
+        <v>110.6435173299874</v>
       </c>
       <c r="M45" t="n">
-        <v>175.0913586264805</v>
+        <v>216.9901990355094</v>
       </c>
       <c r="N45" t="n">
-        <v>294.9136645514369</v>
+        <v>323.3368807410313</v>
       </c>
       <c r="O45" t="n">
-        <v>414.7359704763932</v>
+        <v>429.6835624465533</v>
       </c>
       <c r="P45" t="n">
-        <v>414.7359704763932</v>
+        <v>429.6835624465533</v>
       </c>
       <c r="Q45" t="n">
-        <v>484.1305289897224</v>
+        <v>429.6835624465533</v>
       </c>
       <c r="R45" t="n">
-        <v>484.1305289897224</v>
+        <v>429.6835624465533</v>
       </c>
       <c r="S45" t="n">
-        <v>484.1305289897224</v>
+        <v>429.6835624465533</v>
       </c>
       <c r="T45" t="n">
-        <v>484.1305289897224</v>
+        <v>429.6835624465533</v>
       </c>
       <c r="U45" t="n">
-        <v>447.3225060196422</v>
+        <v>429.6835624465533</v>
       </c>
       <c r="V45" t="n">
-        <v>325.0673219313284</v>
+        <v>321.1776123337873</v>
       </c>
       <c r="W45" t="n">
-        <v>202.8121378430147</v>
+        <v>212.6716622210213</v>
       </c>
       <c r="X45" t="n">
-        <v>202.8121378430147</v>
+        <v>212.6716622210213</v>
       </c>
       <c r="Y45" t="n">
-        <v>202.8121378430147</v>
+        <v>210.6976381752823</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>251.5081723441318</v>
+        <v>8.593671248931066</v>
       </c>
       <c r="C46" t="n">
-        <v>251.5081723441318</v>
+        <v>8.593671248931066</v>
       </c>
       <c r="D46" t="n">
-        <v>251.5081723441318</v>
+        <v>8.593671248931066</v>
       </c>
       <c r="E46" t="n">
-        <v>251.5081723441318</v>
+        <v>8.593671248931066</v>
       </c>
       <c r="F46" t="n">
-        <v>251.5081723441318</v>
+        <v>8.593671248931066</v>
       </c>
       <c r="G46" t="n">
-        <v>143.8304241153442</v>
+        <v>8.593671248931066</v>
       </c>
       <c r="H46" t="n">
-        <v>41.97470300879822</v>
+        <v>8.593671248931066</v>
       </c>
       <c r="I46" t="n">
-        <v>41.97470300879822</v>
+        <v>8.593671248931066</v>
       </c>
       <c r="J46" t="n">
-        <v>9.682610579794449</v>
+        <v>8.593671248931066</v>
       </c>
       <c r="K46" t="n">
-        <v>48.41192219800986</v>
+        <v>38.42997833176219</v>
       </c>
       <c r="L46" t="n">
-        <v>136.5021557315623</v>
+        <v>117.6272073299304</v>
       </c>
       <c r="M46" t="n">
-        <v>236.466302449624</v>
+        <v>208.6983495126077</v>
       </c>
       <c r="N46" t="n">
-        <v>340.9332616308997</v>
+        <v>304.2723041584992</v>
       </c>
       <c r="O46" t="n">
-        <v>426.0486467916385</v>
+        <v>380.4946847838536</v>
       </c>
       <c r="P46" t="n">
-        <v>484.1305289897224</v>
+        <v>429.6835624465533</v>
       </c>
       <c r="Q46" t="n">
-        <v>484.1305289897224</v>
+        <v>429.6835624465533</v>
       </c>
       <c r="R46" t="n">
-        <v>484.1305289897224</v>
+        <v>429.6835624465533</v>
       </c>
       <c r="S46" t="n">
-        <v>484.1305289897224</v>
+        <v>321.1776123337873</v>
       </c>
       <c r="T46" t="n">
-        <v>484.1305289897224</v>
+        <v>212.6716622210213</v>
       </c>
       <c r="U46" t="n">
-        <v>373.7633564324456</v>
+        <v>212.6716622210213</v>
       </c>
       <c r="V46" t="n">
-        <v>373.7633564324456</v>
+        <v>117.0996213616971</v>
       </c>
       <c r="W46" t="n">
-        <v>251.5081723441318</v>
+        <v>117.0996213616971</v>
       </c>
       <c r="X46" t="n">
-        <v>251.5081723441318</v>
+        <v>8.593671248931066</v>
       </c>
       <c r="Y46" t="n">
-        <v>251.5081723441318</v>
+        <v>8.593671248931066</v>
       </c>
     </row>
   </sheetData>
@@ -9169,19 +9169,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>235.7664149699872</v>
+        <v>342.9928603949699</v>
       </c>
       <c r="M17" t="n">
-        <v>334.8779060713908</v>
+        <v>245.845468501508</v>
       </c>
       <c r="N17" t="n">
-        <v>330.1973458255471</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O17" t="n">
-        <v>334.6298842658048</v>
+        <v>337.3246568466693</v>
       </c>
       <c r="P17" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9245,25 +9245,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>170.6399891161814</v>
       </c>
       <c r="L18" t="n">
-        <v>243.0860526239923</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>246.6657067661364</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>231.6498829943557</v>
+        <v>238.5681575083159</v>
       </c>
       <c r="O18" t="n">
-        <v>247.1279172885625</v>
+        <v>249.8226898694271</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>241.2008528393129</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9403,22 +9403,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L20" t="n">
-        <v>245.9849847827304</v>
+        <v>338.6604787616373</v>
       </c>
       <c r="M20" t="n">
-        <v>334.8779060713908</v>
+        <v>337.5726786522553</v>
       </c>
       <c r="N20" t="n">
-        <v>333.944736440709</v>
+        <v>336.6395090215735</v>
       </c>
       <c r="O20" t="n">
-        <v>230.0982114216867</v>
+        <v>337.3246568466693</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9482,22 +9482,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>242.3731118184771</v>
+        <v>245.0678843993416</v>
       </c>
       <c r="L21" t="n">
-        <v>243.0860526239923</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>164.1402622251557</v>
       </c>
       <c r="O21" t="n">
-        <v>247.1279172885625</v>
+        <v>249.8226898694271</v>
       </c>
       <c r="P21" t="n">
-        <v>164.1870646755251</v>
+        <v>241.2008528393129</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9640,13 +9640,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>224.2628968638718</v>
       </c>
       <c r="L23" t="n">
-        <v>356.4855211751448</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>444.9935692638936</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9719,19 +9719,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>199.3616077526892</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>308.1722114819822</v>
       </c>
       <c r="N24" t="n">
-        <v>356.906017174882</v>
+        <v>345.9890481199542</v>
       </c>
       <c r="O24" t="n">
-        <v>368.1605495359931</v>
+        <v>357.2435804810654</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9877,13 +9877,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>262.9697191958591</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>317.7786988431575</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>444.9935692638936</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9956,16 +9956,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>364.1186848714228</v>
+        <v>353.2017158164951</v>
       </c>
       <c r="M27" t="n">
-        <v>329.565059933053</v>
+        <v>356.7813699586392</v>
       </c>
       <c r="N27" t="n">
-        <v>356.906017174882</v>
+        <v>170.7560916050776</v>
       </c>
       <c r="O27" t="n">
         <v>142.5962444444444</v>
@@ -10114,13 +10114,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>262.9697191958591</v>
+        <v>314.8286092800849</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>444.9935692638936</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10129,7 +10129,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10193,22 +10193,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>353.2017158164951</v>
       </c>
       <c r="M30" t="n">
-        <v>367.698339013567</v>
+        <v>356.7813699586392</v>
       </c>
       <c r="N30" t="n">
-        <v>356.906017174882</v>
+        <v>345.9890481199542</v>
       </c>
       <c r="O30" t="n">
-        <v>330.0272704554791</v>
+        <v>151.8516491551748</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10351,19 +10351,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>262.9697191958591</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>444.9935692638936</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>280.9176655554523</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10430,25 +10430,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>367.698339013567</v>
+        <v>356.7813699586392</v>
       </c>
       <c r="N33" t="n">
-        <v>356.906017174882</v>
+        <v>345.9890481199542</v>
       </c>
       <c r="O33" t="n">
-        <v>203.4034724172595</v>
+        <v>357.2435804810654</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>161.4681292591923</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10588,22 +10588,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>314.8286092800849</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>444.9935692638936</v>
       </c>
       <c r="N35" t="n">
-        <v>376.1712310366785</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10667,25 +10667,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>325.9854057909088</v>
+        <v>353.2017158164951</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>356.7813699586392</v>
       </c>
       <c r="N36" t="n">
-        <v>356.906017174882</v>
+        <v>345.9890481199542</v>
       </c>
       <c r="O36" t="n">
-        <v>368.1605495359931</v>
+        <v>221.9471628050024</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10825,13 +10825,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>224.2628968638718</v>
       </c>
       <c r="L38" t="n">
-        <v>356.4855211751448</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>444.9935692638936</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10904,19 +10904,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>364.1186848714228</v>
+        <v>353.2017158164951</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>356.7813699586392</v>
       </c>
       <c r="N39" t="n">
-        <v>318.7727380943679</v>
+        <v>170.7560916050776</v>
       </c>
       <c r="O39" t="n">
-        <v>368.1605495359931</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11065,16 +11065,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>247.853278327701</v>
+        <v>342.212396662569</v>
       </c>
       <c r="M41" t="n">
-        <v>351.3788654747033</v>
+        <v>337.7671238389111</v>
       </c>
       <c r="N41" t="n">
-        <v>350.4456958440215</v>
+        <v>336.8339542082292</v>
       </c>
       <c r="O41" t="n">
-        <v>351.1308436691173</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P41" t="n">
         <v>231.2329957552695</v>
@@ -11141,25 +11141,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>258.8740712217896</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>184.6012910139446</v>
+        <v>241.6350323870018</v>
       </c>
       <c r="M42" t="n">
-        <v>263.1666661694489</v>
+        <v>249.5549245336566</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>238.7626026949716</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>250.0171350560827</v>
       </c>
       <c r="P42" t="n">
-        <v>255.0070396617608</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11302,19 +11302,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>278.3201981589186</v>
+        <v>343.1873055816255</v>
       </c>
       <c r="M44" t="n">
-        <v>230.3462332272727</v>
+        <v>336.7922149198545</v>
       </c>
       <c r="N44" t="n">
-        <v>350.4456958440215</v>
+        <v>336.8339542082292</v>
       </c>
       <c r="O44" t="n">
-        <v>351.1308436691173</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11378,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>183.8883502084295</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>259.5870120273048</v>
+        <v>241.6350323870018</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>249.5549245336566</v>
       </c>
       <c r="N45" t="n">
-        <v>252.3743443307639</v>
+        <v>238.7626026949716</v>
       </c>
       <c r="O45" t="n">
-        <v>263.6288766918751</v>
+        <v>250.0171350560828</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>227.7016822378723</v>
+        <v>330.4549866447869</v>
       </c>
       <c r="C17" t="n">
-        <v>210.2407323453993</v>
+        <v>312.9940367523139</v>
       </c>
       <c r="D17" t="n">
-        <v>304.1825550391928</v>
+        <v>198.322950969138</v>
       </c>
       <c r="E17" t="n">
-        <v>331.4298834907716</v>
+        <v>222.4250696285855</v>
       </c>
       <c r="F17" t="n">
-        <v>356.3755591602213</v>
+        <v>354.5971907230178</v>
       </c>
       <c r="G17" t="n">
-        <v>364.8022509336449</v>
+        <v>363.0238824964414</v>
       </c>
       <c r="H17" t="n">
-        <v>288.974315534277</v>
+        <v>287.1959470970735</v>
       </c>
       <c r="I17" t="n">
-        <v>159.9754029889157</v>
+        <v>158.1970345517122</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>99.3686313596595</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>53.98791016063709</v>
+        <v>156.7412145675517</v>
       </c>
       <c r="T17" t="n">
-        <v>172.5953629826412</v>
+        <v>170.8169945454377</v>
       </c>
       <c r="U17" t="n">
-        <v>200.8451663263463</v>
+        <v>199.0667978891428</v>
       </c>
       <c r="V17" t="n">
-        <v>185.1802744475456</v>
+        <v>275.4734034514412</v>
       </c>
       <c r="W17" t="n">
-        <v>298.7404821359228</v>
+        <v>296.9621136987193</v>
       </c>
       <c r="X17" t="n">
-        <v>319.2306140969789</v>
+        <v>317.4522456597754</v>
       </c>
       <c r="Y17" t="n">
-        <v>335.7374520745634</v>
+        <v>226.7326382123773</v>
       </c>
     </row>
     <row r="18">
@@ -23810,28 +23810,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>116.0326970683772</v>
+        <v>19.80927550084903</v>
       </c>
       <c r="C18" t="n">
-        <v>122.2080124068256</v>
+        <v>120.429643969622</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>95.16621054594506</v>
       </c>
       <c r="E18" t="n">
-        <v>107.1445938739108</v>
+        <v>105.3662254367073</v>
       </c>
       <c r="F18" t="n">
-        <v>94.5687258118937</v>
+        <v>92.79035737469019</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>85.06466214451694</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>59.95658921780278</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>37.11777783272139</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.65734757115296</v>
+        <v>47.87897913394945</v>
       </c>
       <c r="S18" t="n">
-        <v>121.1826845223476</v>
+        <v>119.4043160851441</v>
       </c>
       <c r="T18" t="n">
-        <v>149.6642421133314</v>
+        <v>147.8858736761279</v>
       </c>
       <c r="U18" t="n">
-        <v>175.4408954994846</v>
+        <v>173.6625270622811</v>
       </c>
       <c r="V18" t="n">
-        <v>77.76842772381701</v>
+        <v>180.5217321307316</v>
       </c>
       <c r="W18" t="n">
-        <v>201.1944965794294</v>
+        <v>92.18968271724331</v>
       </c>
       <c r="X18" t="n">
-        <v>155.2724986219873</v>
+        <v>46.26768475980118</v>
       </c>
       <c r="Y18" t="n">
-        <v>138.4660795562791</v>
+        <v>46.17739533362807</v>
       </c>
     </row>
     <row r="19">
@@ -23889,31 +23889,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>129.3314936004471</v>
+        <v>127.5531251632436</v>
       </c>
       <c r="C19" t="n">
-        <v>116.7463345171377</v>
+        <v>114.9679660799341</v>
       </c>
       <c r="D19" t="n">
-        <v>98.11498643672218</v>
+        <v>96.33661799951867</v>
       </c>
       <c r="E19" t="n">
-        <v>95.93347606507899</v>
+        <v>94.15510762787548</v>
       </c>
       <c r="F19" t="n">
-        <v>94.92056144144107</v>
+        <v>93.14219300423755</v>
       </c>
       <c r="G19" t="n">
-        <v>117.4904927769686</v>
+        <v>115.7121243397651</v>
       </c>
       <c r="H19" t="n">
-        <v>111.7266859259494</v>
+        <v>109.9483174887459</v>
       </c>
       <c r="I19" t="n">
-        <v>104.9499883457681</v>
+        <v>103.1716199085646</v>
       </c>
       <c r="J19" t="n">
-        <v>42.8586935351826</v>
+        <v>41.08032509797909</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>22.26123195156123</v>
+        <v>17.78809093349319</v>
       </c>
       <c r="S19" t="n">
-        <v>68.984438611364</v>
+        <v>64.51129759329596</v>
       </c>
       <c r="T19" t="n">
-        <v>72.91343000267324</v>
+        <v>115.1048695122639</v>
       </c>
       <c r="U19" t="n">
-        <v>179.4086020041057</v>
+        <v>234.0401743377972</v>
       </c>
       <c r="V19" t="n">
-        <v>201.6371567423378</v>
+        <v>199.8587883051343</v>
       </c>
       <c r="W19" t="n">
-        <v>236.0225117551008</v>
+        <v>234.2441433178973</v>
       </c>
       <c r="X19" t="n">
-        <v>175.209168807547</v>
+        <v>66.20435494536086</v>
       </c>
       <c r="Y19" t="n">
-        <v>168.0841667706046</v>
+        <v>166.3057983334011</v>
       </c>
     </row>
     <row r="20">
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>332.2333550819904</v>
+        <v>330.4549866447869</v>
       </c>
       <c r="C20" t="n">
-        <v>314.7724051895174</v>
+        <v>312.9940367523138</v>
       </c>
       <c r="D20" t="n">
-        <v>304.1825550391928</v>
+        <v>302.4041866019893</v>
       </c>
       <c r="E20" t="n">
-        <v>331.4298834907716</v>
+        <v>329.6515150535681</v>
       </c>
       <c r="F20" t="n">
-        <v>356.3755591602213</v>
+        <v>354.5971907230178</v>
       </c>
       <c r="G20" t="n">
-        <v>364.8022509336449</v>
+        <v>255.7974370714588</v>
       </c>
       <c r="H20" t="n">
-        <v>288.974315534277</v>
+        <v>183.1147114642222</v>
       </c>
       <c r="I20" t="n">
-        <v>159.9754029889157</v>
+        <v>158.1970345517122</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>158.5195830047552</v>
+        <v>156.7412145675517</v>
       </c>
       <c r="T20" t="n">
-        <v>172.5953629826412</v>
+        <v>170.8169945454377</v>
       </c>
       <c r="U20" t="n">
-        <v>96.31349348222824</v>
+        <v>91.8403524641602</v>
       </c>
       <c r="V20" t="n">
-        <v>277.2517718886447</v>
+        <v>275.4734034514412</v>
       </c>
       <c r="W20" t="n">
-        <v>201.505943210365</v>
+        <v>296.9621136987193</v>
       </c>
       <c r="X20" t="n">
-        <v>319.2306140969789</v>
+        <v>317.4522456597754</v>
       </c>
       <c r="Y20" t="n">
-        <v>231.2057792304453</v>
+        <v>333.9590836373599</v>
       </c>
     </row>
     <row r="21">
@@ -24047,28 +24047,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>116.0326970683772</v>
+        <v>114.2543286311736</v>
       </c>
       <c r="C21" t="n">
-        <v>122.2080124068256</v>
+        <v>120.429643969622</v>
       </c>
       <c r="D21" t="n">
-        <v>96.94457898314857</v>
+        <v>95.16621054594506</v>
       </c>
       <c r="E21" t="n">
-        <v>107.1445938739108</v>
+        <v>105.3662254367073</v>
       </c>
       <c r="F21" t="n">
-        <v>94.5687258118937</v>
+        <v>92.79035737469019</v>
       </c>
       <c r="G21" t="n">
-        <v>86.84303058172046</v>
+        <v>85.06466214451694</v>
       </c>
       <c r="H21" t="n">
-        <v>61.73495765500629</v>
+        <v>59.95658921780277</v>
       </c>
       <c r="I21" t="n">
-        <v>38.89614626992491</v>
+        <v>37.11777783272139</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.65734757115296</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>16.65101167822957</v>
+        <v>119.4043160851441</v>
       </c>
       <c r="T21" t="n">
-        <v>149.6642421133314</v>
+        <v>101.3197996797527</v>
       </c>
       <c r="U21" t="n">
-        <v>70.90922265536656</v>
+        <v>66.43608163729853</v>
       </c>
       <c r="V21" t="n">
-        <v>90.22860312683594</v>
+        <v>73.29528670574898</v>
       </c>
       <c r="W21" t="n">
-        <v>96.66282373531135</v>
+        <v>92.18968271724331</v>
       </c>
       <c r="X21" t="n">
-        <v>155.2724986219873</v>
+        <v>153.4941301847838</v>
       </c>
       <c r="Y21" t="n">
-        <v>155.1822091958142</v>
+        <v>153.4038407586107</v>
       </c>
     </row>
     <row r="22">
@@ -24126,31 +24126,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>129.3314936004471</v>
+        <v>127.5531251632436</v>
       </c>
       <c r="C22" t="n">
-        <v>116.7463345171377</v>
+        <v>114.9679660799341</v>
       </c>
       <c r="D22" t="n">
-        <v>98.11498643672218</v>
+        <v>96.33661799951867</v>
       </c>
       <c r="E22" t="n">
-        <v>95.93347606507899</v>
+        <v>94.15510762787548</v>
       </c>
       <c r="F22" t="n">
-        <v>94.92056144144107</v>
+        <v>93.14219300423755</v>
       </c>
       <c r="G22" t="n">
-        <v>117.4904927769686</v>
+        <v>115.7121243397651</v>
       </c>
       <c r="H22" t="n">
-        <v>111.7266859259494</v>
+        <v>109.9483174887459</v>
       </c>
       <c r="I22" t="n">
-        <v>104.9499883457681</v>
+        <v>103.1716199085646</v>
       </c>
       <c r="J22" t="n">
-        <v>42.8586935351826</v>
+        <v>41.08032509797908</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,31 +24171,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>33.88318823300069</v>
       </c>
       <c r="R22" t="n">
-        <v>22.26123195156123</v>
+        <v>125.0145363584758</v>
       </c>
       <c r="S22" t="n">
-        <v>68.984438611364</v>
+        <v>171.7377430182786</v>
       </c>
       <c r="T22" t="n">
-        <v>177.4451028467913</v>
+        <v>175.6667344095878</v>
       </c>
       <c r="U22" t="n">
-        <v>131.2868699308826</v>
+        <v>126.8137289128146</v>
       </c>
       <c r="V22" t="n">
-        <v>201.6371567423378</v>
+        <v>92.63234288015171</v>
       </c>
       <c r="W22" t="n">
-        <v>236.0225117551008</v>
+        <v>127.0176978929147</v>
       </c>
       <c r="X22" t="n">
-        <v>118.799228036652</v>
+        <v>78.98574724001884</v>
       </c>
       <c r="Y22" t="n">
-        <v>168.0841667706046</v>
+        <v>166.3057983334011</v>
       </c>
     </row>
     <row r="23">
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>67.77290372051684</v>
+        <v>293.3372088120655</v>
       </c>
       <c r="C23" t="n">
-        <v>193.6798557843942</v>
+        <v>275.8762589195925</v>
       </c>
       <c r="D23" t="n">
         <v>265.2864087692679</v>
@@ -24217,16 +24217,16 @@
         <v>292.5337372208467</v>
       </c>
       <c r="F23" t="n">
-        <v>317.4794128902964</v>
+        <v>102.8320768536755</v>
       </c>
       <c r="G23" t="n">
-        <v>325.90610466372</v>
+        <v>111.2587686270991</v>
       </c>
       <c r="H23" t="n">
         <v>250.0781692643521</v>
       </c>
       <c r="I23" t="n">
-        <v>121.0792567189908</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>59.41548898230064</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -24265,7 +24265,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>12.79132052717117</v>
+        <v>238.3556256187198</v>
       </c>
       <c r="W23" t="n">
         <v>259.8443358659979</v>
@@ -24290,19 +24290,19 @@
         <v>83.31186613690066</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>55.51173085272598</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>55.6725795419688</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>47.94688431179556</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>22.83881138508139</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -24332,19 +24332,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.76120130122806</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>82.28653825242274</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>110.7680958434065</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>143.4039542980102</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -24353,7 +24353,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>63.38482613045304</v>
+        <v>116.2860629258893</v>
       </c>
     </row>
     <row r="25">
@@ -24372,13 +24372,13 @@
         <v>59.21884016679728</v>
       </c>
       <c r="E25" t="n">
-        <v>57.03732979515409</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>56.02441517151617</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>78.59434650704368</v>
+        <v>36.03219699465998</v>
       </c>
       <c r="H25" t="n">
         <v>72.8305396560245</v>
@@ -24414,22 +24414,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>134.6199651855572</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>138.5489565768664</v>
       </c>
       <c r="U25" t="n">
-        <v>196.9223965050758</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>162.7410104724129</v>
       </c>
       <c r="W25" t="n">
-        <v>56.93565331591591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>136.3130225376221</v>
       </c>
       <c r="Y25" t="n">
         <v>129.1880205006797</v>
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>293.3372088120655</v>
+        <v>67.92867147421651</v>
       </c>
       <c r="C26" t="n">
-        <v>275.8762589195925</v>
+        <v>265.1150576183644</v>
       </c>
       <c r="D26" t="n">
-        <v>265.2864087692679</v>
+        <v>39.8778714314189</v>
       </c>
       <c r="E26" t="n">
-        <v>292.5337372208467</v>
+        <v>67.12519988299772</v>
       </c>
       <c r="F26" t="n">
-        <v>317.4794128902964</v>
+        <v>306.7182115890683</v>
       </c>
       <c r="G26" t="n">
-        <v>325.90610466372</v>
+        <v>315.1449033624919</v>
       </c>
       <c r="H26" t="n">
-        <v>250.0781692643521</v>
+        <v>239.316967963124</v>
       </c>
       <c r="I26" t="n">
-        <v>121.0792567189908</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>60.4724850897346</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>108.8622354336022</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>122.9380154114882</v>
       </c>
       <c r="U26" t="n">
-        <v>161.9490200564214</v>
+        <v>122.1557843804072</v>
       </c>
       <c r="V26" t="n">
-        <v>67.43693405008173</v>
+        <v>227.5944243174918</v>
       </c>
       <c r="W26" t="n">
-        <v>34.28003077444927</v>
+        <v>249.0831345647699</v>
       </c>
       <c r="X26" t="n">
-        <v>280.334467827054</v>
+        <v>269.5732665258259</v>
       </c>
       <c r="Y26" t="n">
-        <v>71.27700071308985</v>
+        <v>286.0801045034104</v>
       </c>
     </row>
     <row r="27">
@@ -24524,22 +24524,22 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>83.31186613690066</v>
+        <v>52.91135950263045</v>
       </c>
       <c r="D27" t="n">
-        <v>58.04843271322368</v>
+        <v>47.28723141199562</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>55.6725795419688</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>47.94688431179556</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>22.83881138508139</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -24572,13 +24572,13 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>71.52533695119469</v>
       </c>
       <c r="T27" t="n">
-        <v>32.36399536317715</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>125.7835479283317</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24587,7 +24587,7 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>116.3763523520624</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24600,31 +24600,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>10.85400912871594</v>
+        <v>79.67414602929416</v>
       </c>
       <c r="C28" t="n">
-        <v>77.85018824721276</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>59.21884016679728</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>57.03732979515409</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>56.02441517151617</v>
+        <v>45.26321387028811</v>
       </c>
       <c r="G28" t="n">
-        <v>78.59434650704368</v>
+        <v>67.83314520581563</v>
       </c>
       <c r="H28" t="n">
-        <v>72.8305396560245</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>66.05384207584321</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>3.962547265257697</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>77.13555722452635</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>123.8587638843291</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>186.1611952038477</v>
       </c>
       <c r="V28" t="n">
-        <v>162.7410104724129</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>197.1263654851759</v>
+        <v>145.6821316820643</v>
       </c>
       <c r="X28" t="n">
-        <v>136.3130225376221</v>
+        <v>125.551821236394</v>
       </c>
       <c r="Y28" t="n">
-        <v>129.1880205006797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>293.3372088120655</v>
+        <v>282.5760075108374</v>
       </c>
       <c r="C29" t="n">
-        <v>275.8762589195925</v>
+        <v>265.1150576183644</v>
       </c>
       <c r="D29" t="n">
-        <v>265.2864087692679</v>
+        <v>119.7080724902349</v>
       </c>
       <c r="E29" t="n">
-        <v>66.96943212929804</v>
+        <v>67.12519988299772</v>
       </c>
       <c r="F29" t="n">
-        <v>91.9151077987477</v>
+        <v>306.7182115890683</v>
       </c>
       <c r="G29" t="n">
-        <v>325.90610466372</v>
+        <v>100.497567325871</v>
       </c>
       <c r="H29" t="n">
-        <v>250.0781692643521</v>
+        <v>239.316967963124</v>
       </c>
       <c r="I29" t="n">
-        <v>121.0792567189908</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>119.6234367348303</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>133.6992167127163</v>
+        <v>122.9380154114882</v>
       </c>
       <c r="U29" t="n">
-        <v>161.9490200564214</v>
+        <v>151.1878187551933</v>
       </c>
       <c r="V29" t="n">
-        <v>238.3556256187198</v>
+        <v>227.5944243174918</v>
       </c>
       <c r="W29" t="n">
-        <v>34.28003077444927</v>
+        <v>249.0831345647699</v>
       </c>
       <c r="X29" t="n">
-        <v>280.334467827054</v>
+        <v>269.5732665258259</v>
       </c>
       <c r="Y29" t="n">
-        <v>158.6367509697371</v>
+        <v>286.0801045034104</v>
       </c>
     </row>
     <row r="30">
@@ -24761,22 +24761,22 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>47.51770332226501</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>58.04843271322368</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>68.24844760398587</v>
+        <v>57.48724630275781</v>
       </c>
       <c r="F30" t="n">
-        <v>55.6725795419688</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>47.94688431179556</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>22.83881138508139</v>
+        <v>12.07761008385333</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24815,19 +24815,19 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>125.7835479283317</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>102.1590714792097</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>116.2860629258893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24837,31 +24837,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>90.43534733052222</v>
+        <v>79.67414602929416</v>
       </c>
       <c r="C31" t="n">
-        <v>77.85018824721276</v>
+        <v>67.0889869459847</v>
       </c>
       <c r="D31" t="n">
-        <v>59.21884016679728</v>
+        <v>48.45763886556922</v>
       </c>
       <c r="E31" t="n">
-        <v>57.03732979515409</v>
+        <v>46.27612849392604</v>
       </c>
       <c r="F31" t="n">
-        <v>56.02441517151617</v>
+        <v>45.26321387028811</v>
       </c>
       <c r="G31" t="n">
-        <v>78.59434650704368</v>
+        <v>67.83314520581563</v>
       </c>
       <c r="H31" t="n">
-        <v>72.8305396560245</v>
+        <v>62.06933835479644</v>
       </c>
       <c r="I31" t="n">
-        <v>66.05384207584321</v>
+        <v>55.29264077461515</v>
       </c>
       <c r="J31" t="n">
-        <v>3.962547265257697</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24894,19 +24894,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>186.1611952038477</v>
       </c>
       <c r="V31" t="n">
-        <v>162.7410104724129</v>
+        <v>74.61672139297058</v>
       </c>
       <c r="W31" t="n">
-        <v>117.5450272833697</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>136.3130225376221</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>129.1880205006797</v>
+        <v>118.4268191994517</v>
       </c>
     </row>
     <row r="32">
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>270.4983974269841</v>
+        <v>55.85106139036321</v>
       </c>
       <c r="C32" t="n">
-        <v>253.0374475345111</v>
+        <v>212.4701529857437</v>
       </c>
       <c r="D32" t="n">
         <v>242.4475973841865</v>
@@ -24928,10 +24928,10 @@
         <v>269.6949258357653</v>
       </c>
       <c r="F32" t="n">
-        <v>294.640601505215</v>
+        <v>79.99326546859407</v>
       </c>
       <c r="G32" t="n">
-        <v>77.50298818708993</v>
+        <v>303.0672932786386</v>
       </c>
       <c r="H32" t="n">
         <v>227.2393578792707</v>
@@ -24967,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>96.78462534974888</v>
       </c>
       <c r="T32" t="n">
-        <v>46.60166445740106</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>139.11020867134</v>
@@ -24979,13 +24979,13 @@
         <v>215.5168142336385</v>
       </c>
       <c r="W32" t="n">
-        <v>11.44121938936789</v>
+        <v>237.0055244809166</v>
       </c>
       <c r="X32" t="n">
-        <v>257.4956564419726</v>
+        <v>42.84832040535167</v>
       </c>
       <c r="Y32" t="n">
-        <v>48.43818932800846</v>
+        <v>274.0024944195571</v>
       </c>
     </row>
     <row r="33">
@@ -25001,10 +25001,10 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>35.20962132814229</v>
       </c>
       <c r="E33" t="n">
-        <v>28.11252002824048</v>
+        <v>35.26947220846189</v>
       </c>
       <c r="F33" t="n">
         <v>32.83376815688742</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>55.01137686213137</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>36.38002878171589</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>9.044021119787182</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>33.18560378643478</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>55.7555351219623</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>49.99172827094311</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>43.21503069076182</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,22 +25128,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>115.710145191785</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>174.0835851199944</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>139.9021990873316</v>
       </c>
       <c r="W34" t="n">
-        <v>174.2875541000946</v>
+        <v>133.5241584503182</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3492091155983</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>44.93409233543545</v>
+        <v>55.85106139036321</v>
       </c>
       <c r="C35" t="n">
         <v>253.0374475345111</v>
@@ -25165,10 +25165,10 @@
         <v>269.6949258357653</v>
       </c>
       <c r="F35" t="n">
-        <v>69.07629641366631</v>
+        <v>79.99326546859407</v>
       </c>
       <c r="G35" t="n">
-        <v>303.0672932786386</v>
+        <v>114.005919697583</v>
       </c>
       <c r="H35" t="n">
         <v>227.2393578792707</v>
@@ -25201,16 +25201,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>37.63367370465322</v>
       </c>
       <c r="S35" t="n">
-        <v>74.8514678011062</v>
+        <v>96.78462534974888</v>
       </c>
       <c r="T35" t="n">
         <v>110.8604053276349</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>139.11020867134</v>
       </c>
       <c r="V35" t="n">
         <v>215.5168142336385</v>
@@ -25222,7 +25222,7 @@
         <v>257.4956564419726</v>
       </c>
       <c r="Y35" t="n">
-        <v>48.43818932800846</v>
+        <v>59.35515838293622</v>
       </c>
     </row>
     <row r="36">
@@ -25235,13 +25235,13 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>40.64472489293759</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>45.40963621890448</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -25298,10 +25298,10 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>93.53754096698101</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>34.88339365322478</v>
       </c>
     </row>
     <row r="37">
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>35.65884565726832</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>55.01137686213137</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>36.38002878171589</v>
@@ -25323,13 +25323,13 @@
         <v>34.19851841007271</v>
       </c>
       <c r="F37" t="n">
-        <v>33.18560378643478</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>55.7555351219623</v>
       </c>
       <c r="H37" t="n">
-        <v>49.99172827094311</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>43.21503069076182</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>65.05794714067302</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>115.710145191785</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>174.0835851199944</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>113.4742111525407</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>106.3492091155983</v>
+        <v>38.81929739246398</v>
       </c>
     </row>
     <row r="38">
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>309.394543696909</v>
+        <v>307.6161752597055</v>
       </c>
       <c r="C38" t="n">
-        <v>291.933593804436</v>
+        <v>285.4041369513482</v>
       </c>
       <c r="D38" t="n">
-        <v>281.3437436541114</v>
+        <v>279.5653752169079</v>
       </c>
       <c r="E38" t="n">
-        <v>308.5910721056902</v>
+        <v>306.8127036684867</v>
       </c>
       <c r="F38" t="n">
-        <v>211.389527825082</v>
+        <v>117.1110433013155</v>
       </c>
       <c r="G38" t="n">
-        <v>341.9634395485635</v>
+        <v>340.18507111136</v>
       </c>
       <c r="H38" t="n">
-        <v>266.1355041491956</v>
+        <v>264.3571357119921</v>
       </c>
       <c r="I38" t="n">
-        <v>137.1365916038343</v>
+        <v>135.3582231666308</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>135.6807716196738</v>
+        <v>133.9024031824703</v>
       </c>
       <c r="T38" t="n">
-        <v>149.7565515975598</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>178.0063549412649</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>28.84865541201466</v>
+        <v>37.98725602973892</v>
       </c>
       <c r="W38" t="n">
-        <v>50.33736565929277</v>
+        <v>274.123302313638</v>
       </c>
       <c r="X38" t="n">
-        <v>296.3918027118975</v>
+        <v>294.613434274694</v>
       </c>
       <c r="Y38" t="n">
-        <v>87.33433559793335</v>
+        <v>311.1202722522785</v>
       </c>
     </row>
     <row r="39">
@@ -25469,28 +25469,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>93.19388568329578</v>
+        <v>91.41551724609226</v>
       </c>
       <c r="C39" t="n">
-        <v>99.36920102174417</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>84.30578248882938</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>71.72991442681231</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>64.00421919663907</v>
+        <v>62.22585075943556</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>37.11777783272139</v>
       </c>
       <c r="I39" t="n">
-        <v>16.05733488484351</v>
+        <v>14.27896644764</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,25 +25517,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>26.81853618607157</v>
+        <v>25.04016774886806</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>96.56550470006275</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>53.5125381831464</v>
       </c>
       <c r="V39" t="n">
-        <v>85.56371883656418</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>176.5773167571445</v>
       </c>
       <c r="X39" t="n">
-        <v>132.4336872369059</v>
+        <v>130.6553187997024</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25548,31 +25548,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>106.4926822153657</v>
+        <v>104.7143137781622</v>
       </c>
       <c r="C40" t="n">
-        <v>93.90752313205627</v>
+        <v>92.12915469485276</v>
       </c>
       <c r="D40" t="n">
-        <v>75.27617505164079</v>
+        <v>73.49780661443728</v>
       </c>
       <c r="E40" t="n">
-        <v>73.09466467999761</v>
+        <v>71.3162962427941</v>
       </c>
       <c r="F40" t="n">
-        <v>72.08175005635968</v>
+        <v>70.30338161915617</v>
       </c>
       <c r="G40" t="n">
-        <v>94.65168139188719</v>
+        <v>92.87331295468368</v>
       </c>
       <c r="H40" t="n">
-        <v>88.88787454086801</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>82.11117696068672</v>
+        <v>80.33280852348321</v>
       </c>
       <c r="J40" t="n">
-        <v>20.01988215010121</v>
+        <v>18.2415137128977</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,31 +25593,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>11.04437684791931</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>102.1757249733944</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>148.8989316331972</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>51.50444640986689</v>
       </c>
       <c r="U40" t="n">
-        <v>212.9797313899193</v>
+        <v>211.2013629527158</v>
       </c>
       <c r="V40" t="n">
-        <v>178.7983453572564</v>
+        <v>177.0199769200529</v>
       </c>
       <c r="W40" t="n">
-        <v>95.27170039328765</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>152.3703574224656</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>145.2453553855232</v>
+        <v>143.4669869483197</v>
       </c>
     </row>
     <row r="41">
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>321.3438330515215</v>
+        <v>330.3266659155461</v>
       </c>
       <c r="C41" t="n">
-        <v>303.8828831590485</v>
+        <v>312.865716023073</v>
       </c>
       <c r="D41" t="n">
-        <v>293.2930330087239</v>
+        <v>302.2758658727485</v>
       </c>
       <c r="E41" t="n">
-        <v>320.5403614603027</v>
+        <v>224.9479254551731</v>
       </c>
       <c r="F41" t="n">
-        <v>345.4860371297524</v>
+        <v>354.4688699937769</v>
       </c>
       <c r="G41" t="n">
-        <v>232.8800966557454</v>
+        <v>362.8955617672005</v>
       </c>
       <c r="H41" t="n">
-        <v>278.0847935038081</v>
+        <v>287.0676263678326</v>
       </c>
       <c r="I41" t="n">
-        <v>42.48033847491001</v>
+        <v>158.0687138224714</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>88.47910932919063</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>147.6300609742863</v>
+        <v>156.6128938383108</v>
       </c>
       <c r="T41" t="n">
-        <v>161.7058409521723</v>
+        <v>170.6886738161969</v>
       </c>
       <c r="U41" t="n">
-        <v>189.9556442958774</v>
+        <v>198.938477159902</v>
       </c>
       <c r="V41" t="n">
-        <v>266.3622498581759</v>
+        <v>275.3450827222004</v>
       </c>
       <c r="W41" t="n">
-        <v>287.850960105454</v>
+        <v>189.4129023578402</v>
       </c>
       <c r="X41" t="n">
-        <v>187.3084598190794</v>
+        <v>209.9030343188962</v>
       </c>
       <c r="Y41" t="n">
-        <v>203.8152977966639</v>
+        <v>333.8307629081191</v>
       </c>
     </row>
     <row r="42">
@@ -25706,28 +25706,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>105.1431750379083</v>
+        <v>6.705117290294538</v>
       </c>
       <c r="C42" t="n">
-        <v>111.3184903763567</v>
+        <v>120.3013232403812</v>
       </c>
       <c r="D42" t="n">
-        <v>86.05505695267971</v>
+        <v>95.03788981670425</v>
       </c>
       <c r="E42" t="n">
-        <v>96.2550718434419</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>83.67920378142483</v>
+        <v>92.66203664544938</v>
       </c>
       <c r="G42" t="n">
-        <v>75.95350855125159</v>
+        <v>84.93634141527613</v>
       </c>
       <c r="H42" t="n">
-        <v>50.84543562453742</v>
+        <v>59.82826848856196</v>
       </c>
       <c r="I42" t="n">
-        <v>28.00662423945604</v>
+        <v>36.98945710348058</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>38.76782554068409</v>
+        <v>47.75065840470863</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>22.47668900100047</v>
       </c>
       <c r="T42" t="n">
-        <v>138.7747200828626</v>
+        <v>40.3366623352488</v>
       </c>
       <c r="U42" t="n">
-        <v>43.51874122158517</v>
+        <v>173.5342063330403</v>
       </c>
       <c r="V42" t="n">
-        <v>54.06556629837755</v>
+        <v>180.3934114014908</v>
       </c>
       <c r="W42" t="n">
-        <v>69.27234230152996</v>
+        <v>199.2878074129851</v>
       </c>
       <c r="X42" t="n">
-        <v>144.3829765915184</v>
+        <v>153.365809455543</v>
       </c>
       <c r="Y42" t="n">
-        <v>144.2926871653453</v>
+        <v>153.2755200293699</v>
       </c>
     </row>
     <row r="43">
@@ -25785,31 +25785,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>118.4419715699783</v>
+        <v>127.4248044340028</v>
       </c>
       <c r="C43" t="n">
-        <v>105.8568124866688</v>
+        <v>114.8396453506933</v>
       </c>
       <c r="D43" t="n">
-        <v>87.22546440625331</v>
+        <v>96.20829727027785</v>
       </c>
       <c r="E43" t="n">
-        <v>85.04395403461012</v>
+        <v>94.02678689863467</v>
       </c>
       <c r="F43" t="n">
-        <v>84.0310394109722</v>
+        <v>93.01387227499674</v>
       </c>
       <c r="G43" t="n">
-        <v>106.6009707464997</v>
+        <v>115.5838036105243</v>
       </c>
       <c r="H43" t="n">
-        <v>100.8371638954805</v>
+        <v>109.8199967595051</v>
       </c>
       <c r="I43" t="n">
-        <v>94.06046631529924</v>
+        <v>103.0432991793238</v>
       </c>
       <c r="J43" t="n">
-        <v>31.96917150471374</v>
+        <v>40.95200436873827</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>124.886215629235</v>
       </c>
       <c r="S43" t="n">
-        <v>75.66383209899143</v>
+        <v>64.18853167739945</v>
       </c>
       <c r="T43" t="n">
-        <v>45.52294856889185</v>
+        <v>68.11752306870869</v>
       </c>
       <c r="U43" t="n">
-        <v>224.9290207445318</v>
+        <v>233.9118536085564</v>
       </c>
       <c r="V43" t="n">
-        <v>69.71500246443836</v>
+        <v>138.8690146289223</v>
       </c>
       <c r="W43" t="n">
-        <v>225.132989724632</v>
+        <v>234.1158225886565</v>
       </c>
       <c r="X43" t="n">
-        <v>164.3196467770781</v>
+        <v>65.88158902946435</v>
       </c>
       <c r="Y43" t="n">
-        <v>157.1946447401357</v>
+        <v>166.1774776041603</v>
       </c>
     </row>
     <row r="44">
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>200.3112008040909</v>
+        <v>330.3266659155461</v>
       </c>
       <c r="C44" t="n">
-        <v>303.8828831590485</v>
+        <v>312.865716023073</v>
       </c>
       <c r="D44" t="n">
-        <v>293.2930330087239</v>
+        <v>302.2758658727485</v>
       </c>
       <c r="E44" t="n">
-        <v>320.5403614603027</v>
+        <v>329.5231943243273</v>
       </c>
       <c r="F44" t="n">
-        <v>345.4860371297524</v>
+        <v>354.4688699937769</v>
       </c>
       <c r="G44" t="n">
-        <v>232.8800966557454</v>
+        <v>362.8955617672005</v>
       </c>
       <c r="H44" t="n">
-        <v>278.0847935038081</v>
+        <v>179.6467357561943</v>
       </c>
       <c r="I44" t="n">
-        <v>149.0858809584469</v>
+        <v>50.64782321083308</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>88.47910932919063</v>
+        <v>97.46194219321518</v>
       </c>
       <c r="S44" t="n">
-        <v>147.6300609742863</v>
+        <v>156.6128938383108</v>
       </c>
       <c r="T44" t="n">
-        <v>161.7058409521723</v>
+        <v>63.26778320455853</v>
       </c>
       <c r="U44" t="n">
-        <v>83.35010181234057</v>
+        <v>198.938477159902</v>
       </c>
       <c r="V44" t="n">
-        <v>266.3622498581759</v>
+        <v>180.7287622714695</v>
       </c>
       <c r="W44" t="n">
-        <v>287.850960105454</v>
+        <v>296.8337929694785</v>
       </c>
       <c r="X44" t="n">
-        <v>308.34109206651</v>
+        <v>317.3239249305345</v>
       </c>
       <c r="Y44" t="n">
-        <v>203.8152977966639</v>
+        <v>333.8307629081191</v>
       </c>
     </row>
     <row r="45">
@@ -25943,28 +25943,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>114.1260079019328</v>
       </c>
       <c r="C45" t="n">
-        <v>111.3184903763567</v>
+        <v>12.88043262874291</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>95.03788981670425</v>
       </c>
       <c r="E45" t="n">
-        <v>96.2550718434419</v>
+        <v>105.2379047074664</v>
       </c>
       <c r="F45" t="n">
-        <v>83.67920378142483</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>75.95350855125159</v>
+        <v>84.93634141527613</v>
       </c>
       <c r="H45" t="n">
-        <v>50.84543562453742</v>
+        <v>59.82826848856196</v>
       </c>
       <c r="I45" t="n">
-        <v>28.00662423945604</v>
+        <v>36.98945710348058</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>38.76782554068409</v>
+        <v>47.75065840470863</v>
       </c>
       <c r="S45" t="n">
-        <v>110.2931624918788</v>
+        <v>119.2759953559033</v>
       </c>
       <c r="T45" t="n">
-        <v>138.7747200828626</v>
+        <v>147.7575529468871</v>
       </c>
       <c r="U45" t="n">
-        <v>128.1114307286363</v>
+        <v>173.5342063330403</v>
       </c>
       <c r="V45" t="n">
-        <v>50.37794629003561</v>
+        <v>72.97252078985244</v>
       </c>
       <c r="W45" t="n">
-        <v>69.27234230152995</v>
+        <v>91.86691680134678</v>
       </c>
       <c r="X45" t="n">
-        <v>144.3829765915184</v>
+        <v>153.365809455543</v>
       </c>
       <c r="Y45" t="n">
-        <v>144.2926871653453</v>
+        <v>151.3212362240883</v>
       </c>
     </row>
     <row r="46">
@@ -26022,31 +26022,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>118.4419715699783</v>
+        <v>127.4248044340028</v>
       </c>
       <c r="C46" t="n">
-        <v>105.8568124866688</v>
+        <v>114.8396453506933</v>
       </c>
       <c r="D46" t="n">
-        <v>87.22546440625331</v>
+        <v>96.20829727027785</v>
       </c>
       <c r="E46" t="n">
-        <v>85.04395403461012</v>
+        <v>94.02678689863467</v>
       </c>
       <c r="F46" t="n">
-        <v>84.0310394109722</v>
+        <v>93.01387227499674</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>115.5838036105243</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>109.8199967595051</v>
       </c>
       <c r="I46" t="n">
-        <v>94.06046631529924</v>
+        <v>103.0432991793238</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>40.95200436873827</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,31 +26067,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.77203463973535</v>
+        <v>33.75486750375988</v>
       </c>
       <c r="R46" t="n">
-        <v>115.9033827652104</v>
+        <v>124.886215629235</v>
       </c>
       <c r="S46" t="n">
-        <v>162.6265894250132</v>
+        <v>64.18853167739942</v>
       </c>
       <c r="T46" t="n">
-        <v>166.5555808163224</v>
+        <v>68.11752306870866</v>
       </c>
       <c r="U46" t="n">
-        <v>115.6655199128277</v>
+        <v>233.9118536085564</v>
       </c>
       <c r="V46" t="n">
-        <v>190.747634711869</v>
+        <v>105.1141471251625</v>
       </c>
       <c r="W46" t="n">
-        <v>104.1003574772013</v>
+        <v>234.1158225886565</v>
       </c>
       <c r="X46" t="n">
-        <v>164.3196467770781</v>
+        <v>65.88158902946432</v>
       </c>
       <c r="Y46" t="n">
-        <v>157.1946447401357</v>
+        <v>166.1774776041603</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>444970.1274608697</v>
+        <v>450392.341633321</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>444970.1274608696</v>
+        <v>450392.341633321</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>600549.2861175288</v>
+        <v>594046.4052605382</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>600549.2861175289</v>
+        <v>616748.9006191667</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>600549.2861175288</v>
+        <v>616748.9006191667</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>648294.3716767801</v>
+        <v>641791.4908197896</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>648294.3716767799</v>
+        <v>641791.4908197896</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>566085.7098449901</v>
+        <v>563399.855407158</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>478172.0891295533</v>
+        <v>450783.5892860306</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>478172.0891295531</v>
+        <v>450783.5892860305</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>737348.7048453349</v>
+      </c>
+      <c r="C2" t="n">
+        <v>737348.7048453346</v>
+      </c>
+      <c r="D2" t="n">
         <v>737348.7048453345</v>
-      </c>
-      <c r="C2" t="n">
-        <v>737348.7048453349</v>
-      </c>
-      <c r="D2" t="n">
-        <v>737348.704845335</v>
       </c>
       <c r="E2" t="n">
         <v>221068.8836719025</v>
@@ -26328,34 +26328,34 @@
         <v>221068.8836719025</v>
       </c>
       <c r="G2" t="n">
-        <v>357311.8290141823</v>
+        <v>362501.6609019874</v>
       </c>
       <c r="H2" t="n">
-        <v>357311.8290141823</v>
+        <v>362501.6609019874</v>
       </c>
       <c r="I2" t="n">
-        <v>497280.0735614424</v>
+        <v>492628.2237902239</v>
       </c>
       <c r="J2" t="n">
-        <v>497280.0735614426</v>
+        <v>516666.1600523011</v>
       </c>
       <c r="K2" t="n">
-        <v>497280.0735614424</v>
+        <v>516666.1600523012</v>
       </c>
       <c r="L2" t="n">
-        <v>547833.6935653551</v>
+        <v>543181.8437941371</v>
       </c>
       <c r="M2" t="n">
-        <v>547833.6935653551</v>
+        <v>543181.8437941369</v>
       </c>
       <c r="N2" t="n">
-        <v>460789.2280964005</v>
+        <v>460178.9357101742</v>
       </c>
       <c r="O2" t="n">
-        <v>389090.8391981183</v>
+        <v>362876.1406771275</v>
       </c>
       <c r="P2" t="n">
-        <v>389090.8391981182</v>
+        <v>362876.1406771275</v>
       </c>
     </row>
     <row r="3">
@@ -26380,22 +26380,22 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>59491.52133298223</v>
+        <v>61652.81282557129</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>63302.03561580892</v>
+        <v>58259.69291851459</v>
       </c>
       <c r="J3" t="n">
-        <v>9559.431483690014</v>
+        <v>18168.39252467246</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>49112.00688956723</v>
+        <v>41925.7405983476</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26432,34 +26432,34 @@
         <v>103481.2608804273</v>
       </c>
       <c r="G4" t="n">
-        <v>181481.5791371496</v>
+        <v>184570.628528414</v>
       </c>
       <c r="H4" t="n">
-        <v>181481.5791371496</v>
+        <v>184570.628528414</v>
       </c>
       <c r="I4" t="n">
-        <v>261087.9428779844</v>
+        <v>258970.5651918706</v>
       </c>
       <c r="J4" t="n">
-        <v>261087.9428779844</v>
+        <v>274240.4234495931</v>
       </c>
       <c r="K4" t="n">
-        <v>261087.9428779844</v>
+        <v>274240.4234495931</v>
       </c>
       <c r="L4" t="n">
-        <v>293203.4840317004</v>
+        <v>291086.1063455866</v>
       </c>
       <c r="M4" t="n">
-        <v>293203.4840317004</v>
+        <v>291086.1063455866</v>
       </c>
       <c r="N4" t="n">
-        <v>237915.242918259</v>
+        <v>238364.2556964523</v>
       </c>
       <c r="O4" t="n">
-        <v>200396.8222868066</v>
+        <v>184793.523324709</v>
       </c>
       <c r="P4" t="n">
-        <v>200396.8222868066</v>
+        <v>184793.523324709</v>
       </c>
     </row>
     <row r="5">
@@ -26484,34 +26484,34 @@
         <v>1004.56480675292</v>
       </c>
       <c r="G5" t="n">
-        <v>10601.05111534168</v>
+        <v>10914.3989444055</v>
       </c>
       <c r="H5" t="n">
-        <v>10601.05111534168</v>
+        <v>10914.3989444055</v>
       </c>
       <c r="I5" t="n">
-        <v>21229.79527675177</v>
+        <v>20566.04355821216</v>
       </c>
       <c r="J5" t="n">
-        <v>21229.79527675177</v>
+        <v>21470.72699040511</v>
       </c>
       <c r="K5" t="n">
-        <v>21229.79527675177</v>
+        <v>21470.72699040511</v>
       </c>
       <c r="L5" t="n">
-        <v>23149.83131108418</v>
+        <v>22486.07959254457</v>
       </c>
       <c r="M5" t="n">
-        <v>23149.83131108418</v>
+        <v>22486.07959254457</v>
       </c>
       <c r="N5" t="n">
-        <v>19879.87119031786</v>
+        <v>19365.62512792552</v>
       </c>
       <c r="O5" t="n">
-        <v>12519.78067464256</v>
+        <v>10937.00900714071</v>
       </c>
       <c r="P5" t="n">
-        <v>12519.78067464257</v>
+        <v>10937.00900714072</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>272822.5954026587</v>
+        <v>272778.4596239779</v>
       </c>
       <c r="C6" t="n">
-        <v>272822.595402659</v>
+        <v>272778.4596239777</v>
       </c>
       <c r="D6" t="n">
-        <v>272822.5954026591</v>
+        <v>272778.4596239775</v>
       </c>
       <c r="E6" t="n">
-        <v>107023.6265010323</v>
+        <v>92638.38457864471</v>
       </c>
       <c r="F6" t="n">
-        <v>116583.0579847223</v>
+        <v>102197.8160623347</v>
       </c>
       <c r="G6" t="n">
-        <v>105737.6774287089</v>
+        <v>94907.26693760032</v>
       </c>
       <c r="H6" t="n">
-        <v>165229.198761691</v>
+        <v>156560.0797631716</v>
       </c>
       <c r="I6" t="n">
-        <v>151660.2997908973</v>
+        <v>147989.9952025258</v>
       </c>
       <c r="J6" t="n">
-        <v>205402.9039230164</v>
+        <v>196612.4106202539</v>
       </c>
       <c r="K6" t="n">
-        <v>214962.3354067063</v>
+        <v>214780.8031449264</v>
       </c>
       <c r="L6" t="n">
-        <v>182368.3713330033</v>
+        <v>182246.2575608884</v>
       </c>
       <c r="M6" t="n">
-        <v>231480.3782225706</v>
+        <v>224171.9981592358</v>
       </c>
       <c r="N6" t="n">
-        <v>202994.1139878237</v>
+        <v>194705.7588533608</v>
       </c>
       <c r="O6" t="n">
-        <v>176174.2362366692</v>
+        <v>156699.4568952576</v>
       </c>
       <c r="P6" t="n">
-        <v>176174.236236669</v>
+        <v>156699.4568952576</v>
       </c>
     </row>
   </sheetData>
@@ -26700,19 +26700,19 @@
         <v>11.94928935461252</v>
       </c>
       <c r="G2" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869368</v>
       </c>
       <c r="H2" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869369</v>
       </c>
       <c r="I2" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J2" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="K2" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="L2" t="n">
         <v>112.2354442364965</v>
@@ -26721,13 +26721,13 @@
         <v>112.2354442364965</v>
       </c>
       <c r="N2" t="n">
-        <v>73.33929796657156</v>
+        <v>75.11766640377508</v>
       </c>
       <c r="O2" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="P2" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
     </row>
     <row r="3">
@@ -26804,34 +26804,34 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>104.5316728441181</v>
+        <v>107.2264454249826</v>
       </c>
       <c r="H4" t="n">
-        <v>104.5316728441181</v>
+        <v>107.2264454249826</v>
       </c>
       <c r="I4" t="n">
-        <v>225.5643050915487</v>
+        <v>214.6473360366209</v>
       </c>
       <c r="J4" t="n">
-        <v>225.5643050915487</v>
+        <v>214.6473360366209</v>
       </c>
       <c r="K4" t="n">
-        <v>225.5643050915487</v>
+        <v>214.6473360366209</v>
       </c>
       <c r="L4" t="n">
-        <v>225.5643050915487</v>
+        <v>214.6473360366209</v>
       </c>
       <c r="M4" t="n">
-        <v>225.5643050915487</v>
+        <v>214.6473360366209</v>
       </c>
       <c r="N4" t="n">
-        <v>225.5643050915487</v>
+        <v>214.6473360366209</v>
       </c>
       <c r="O4" t="n">
-        <v>121.0326322474306</v>
+        <v>107.4208906116383</v>
       </c>
       <c r="P4" t="n">
-        <v>121.0326322474306</v>
+        <v>107.4208906116383</v>
       </c>
     </row>
   </sheetData>
@@ -26922,22 +26922,22 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>38.55119722687765</v>
+        <v>40.32956566408117</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>38.89614626992491</v>
+        <v>37.11777783272139</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>22.71049065584057</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27026,13 +27026,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>104.5316728441181</v>
+        <v>107.2264454249826</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>121.0326322474306</v>
+        <v>107.4208906116383</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27159,16 +27159,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>38.55119722687765</v>
+        <v>40.32956566408117</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>38.89614626992491</v>
+        <v>37.11777783272139</v>
       </c>
       <c r="O2" t="n">
-        <v>11.94928935461252</v>
+        <v>22.71049065584057</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>104.5316728441181</v>
+        <v>107.2264454249826</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869368</v>
       </c>
       <c r="C17" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869368</v>
       </c>
       <c r="D17" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869368</v>
       </c>
       <c r="E17" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869368</v>
       </c>
       <c r="F17" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869368</v>
       </c>
       <c r="G17" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869368</v>
       </c>
       <c r="H17" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869368</v>
       </c>
       <c r="I17" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869368</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -28611,28 +28611,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869368</v>
       </c>
       <c r="S17" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869368</v>
       </c>
       <c r="T17" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869368</v>
       </c>
       <c r="U17" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869368</v>
       </c>
       <c r="V17" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869368</v>
       </c>
       <c r="W17" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869368</v>
       </c>
       <c r="X17" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869368</v>
       </c>
       <c r="Y17" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869368</v>
       </c>
     </row>
     <row r="18">
@@ -28642,28 +28642,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869368</v>
       </c>
       <c r="C18" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869368</v>
       </c>
       <c r="D18" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869368</v>
       </c>
       <c r="E18" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869368</v>
       </c>
       <c r="F18" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869368</v>
       </c>
       <c r="G18" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869368</v>
       </c>
       <c r="H18" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869368</v>
       </c>
       <c r="I18" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869368</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -28690,28 +28690,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869368</v>
       </c>
       <c r="S18" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869368</v>
       </c>
       <c r="T18" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869368</v>
       </c>
       <c r="U18" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869368</v>
       </c>
       <c r="V18" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869368</v>
       </c>
       <c r="W18" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869368</v>
       </c>
       <c r="X18" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869368</v>
       </c>
       <c r="Y18" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869368</v>
       </c>
     </row>
     <row r="19">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869368</v>
       </c>
       <c r="C19" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869368</v>
       </c>
       <c r="D19" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869368</v>
       </c>
       <c r="E19" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869368</v>
       </c>
       <c r="F19" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869368</v>
       </c>
       <c r="G19" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869368</v>
       </c>
       <c r="H19" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869368</v>
       </c>
       <c r="I19" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869368</v>
       </c>
       <c r="J19" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869368</v>
       </c>
       <c r="K19" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869368</v>
       </c>
       <c r="L19" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869368</v>
       </c>
       <c r="M19" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869368</v>
       </c>
       <c r="N19" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869368</v>
       </c>
       <c r="O19" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869368</v>
       </c>
       <c r="P19" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869368</v>
       </c>
       <c r="Q19" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869368</v>
       </c>
       <c r="R19" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869368</v>
       </c>
       <c r="S19" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869368</v>
       </c>
       <c r="T19" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869368</v>
       </c>
       <c r="U19" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869368</v>
       </c>
       <c r="V19" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869368</v>
       </c>
       <c r="W19" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869368</v>
       </c>
       <c r="X19" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869368</v>
       </c>
       <c r="Y19" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869368</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869369</v>
       </c>
       <c r="C20" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869369</v>
       </c>
       <c r="D20" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869369</v>
       </c>
       <c r="E20" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869369</v>
       </c>
       <c r="F20" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869369</v>
       </c>
       <c r="G20" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869369</v>
       </c>
       <c r="H20" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869369</v>
       </c>
       <c r="I20" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869369</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -28848,28 +28848,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869369</v>
       </c>
       <c r="S20" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869369</v>
       </c>
       <c r="T20" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869369</v>
       </c>
       <c r="U20" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869369</v>
       </c>
       <c r="V20" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869369</v>
       </c>
       <c r="W20" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869369</v>
       </c>
       <c r="X20" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869369</v>
       </c>
       <c r="Y20" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869369</v>
       </c>
     </row>
     <row r="21">
@@ -28879,28 +28879,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869369</v>
       </c>
       <c r="C21" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869369</v>
       </c>
       <c r="D21" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869369</v>
       </c>
       <c r="E21" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869369</v>
       </c>
       <c r="F21" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869369</v>
       </c>
       <c r="G21" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869369</v>
       </c>
       <c r="H21" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869369</v>
       </c>
       <c r="I21" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869369</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -28927,28 +28927,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869369</v>
       </c>
       <c r="S21" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869369</v>
       </c>
       <c r="T21" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869369</v>
       </c>
       <c r="U21" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869369</v>
       </c>
       <c r="V21" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869369</v>
       </c>
       <c r="W21" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869369</v>
       </c>
       <c r="X21" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869369</v>
       </c>
       <c r="Y21" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869369</v>
       </c>
     </row>
     <row r="22">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869369</v>
       </c>
       <c r="C22" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869369</v>
       </c>
       <c r="D22" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869369</v>
       </c>
       <c r="E22" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869369</v>
       </c>
       <c r="F22" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869369</v>
       </c>
       <c r="G22" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869369</v>
       </c>
       <c r="H22" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869369</v>
       </c>
       <c r="I22" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869369</v>
       </c>
       <c r="J22" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869369</v>
       </c>
       <c r="K22" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869369</v>
       </c>
       <c r="L22" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869369</v>
       </c>
       <c r="M22" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869369</v>
       </c>
       <c r="N22" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869369</v>
       </c>
       <c r="O22" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869369</v>
       </c>
       <c r="P22" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869369</v>
       </c>
       <c r="Q22" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869369</v>
       </c>
       <c r="R22" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869369</v>
       </c>
       <c r="S22" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869369</v>
       </c>
       <c r="T22" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869369</v>
       </c>
       <c r="U22" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869369</v>
       </c>
       <c r="V22" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869369</v>
       </c>
       <c r="W22" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869369</v>
       </c>
       <c r="X22" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869369</v>
       </c>
       <c r="Y22" t="n">
-        <v>50.50048658149017</v>
+        <v>52.27885501869369</v>
       </c>
     </row>
     <row r="23">
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="C26" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="D26" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="E26" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="F26" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="G26" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="H26" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="I26" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -29322,28 +29322,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S26" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="T26" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="U26" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="V26" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="W26" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="X26" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="Y26" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
     </row>
     <row r="27">
@@ -29353,25 +29353,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="C27" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="D27" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="E27" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="F27" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="G27" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="H27" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
@@ -29401,28 +29401,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="T27" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="U27" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="V27" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="W27" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="X27" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="Y27" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
     </row>
     <row r="28">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="C28" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="D28" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="E28" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="F28" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="G28" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="H28" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="I28" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="J28" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="K28" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="L28" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="M28" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="N28" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="O28" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="P28" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="Q28" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="R28" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S28" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="T28" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="U28" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="V28" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="W28" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="X28" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="Y28" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
     </row>
     <row r="29">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="C29" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="D29" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="E29" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="F29" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="G29" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="H29" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="I29" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -29559,28 +29559,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S29" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="T29" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="U29" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="V29" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="W29" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="X29" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="Y29" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
     </row>
     <row r="30">
@@ -29590,25 +29590,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="C30" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="D30" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="E30" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="F30" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="G30" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="H30" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
@@ -29638,28 +29638,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="T30" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="U30" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="V30" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="W30" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="X30" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="Y30" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
     </row>
     <row r="31">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="C31" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="D31" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="E31" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="F31" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="G31" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="H31" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="I31" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="J31" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="K31" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="L31" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="M31" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="N31" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="O31" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="P31" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="Q31" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="R31" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S31" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="T31" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="U31" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="V31" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="W31" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="X31" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="Y31" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
     </row>
     <row r="32">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>73.33929796657156</v>
+        <v>75.11766640377508</v>
       </c>
       <c r="C38" t="n">
-        <v>73.33929796657156</v>
+        <v>75.11766640377508</v>
       </c>
       <c r="D38" t="n">
-        <v>73.33929796657156</v>
+        <v>75.11766640377508</v>
       </c>
       <c r="E38" t="n">
-        <v>73.33929796657156</v>
+        <v>75.11766640377508</v>
       </c>
       <c r="F38" t="n">
-        <v>73.33929796657156</v>
+        <v>75.11766640377508</v>
       </c>
       <c r="G38" t="n">
-        <v>73.33929796657156</v>
+        <v>75.11766640377508</v>
       </c>
       <c r="H38" t="n">
-        <v>73.33929796657156</v>
+        <v>75.11766640377508</v>
       </c>
       <c r="I38" t="n">
-        <v>73.33929796657156</v>
+        <v>75.11766640377508</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -30270,28 +30270,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>73.33929796657156</v>
+        <v>75.11766640377508</v>
       </c>
       <c r="S38" t="n">
-        <v>73.33929796657156</v>
+        <v>75.11766640377508</v>
       </c>
       <c r="T38" t="n">
-        <v>73.33929796657156</v>
+        <v>75.11766640377508</v>
       </c>
       <c r="U38" t="n">
-        <v>73.33929796657156</v>
+        <v>75.11766640377508</v>
       </c>
       <c r="V38" t="n">
-        <v>73.33929796657156</v>
+        <v>75.11766640377508</v>
       </c>
       <c r="W38" t="n">
-        <v>73.33929796657156</v>
+        <v>75.11766640377508</v>
       </c>
       <c r="X38" t="n">
-        <v>73.33929796657156</v>
+        <v>75.11766640377508</v>
       </c>
       <c r="Y38" t="n">
-        <v>73.33929796657156</v>
+        <v>75.11766640377508</v>
       </c>
     </row>
     <row r="39">
@@ -30301,28 +30301,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>73.33929796657156</v>
+        <v>75.11766640377508</v>
       </c>
       <c r="C39" t="n">
-        <v>73.33929796657156</v>
+        <v>75.11766640377508</v>
       </c>
       <c r="D39" t="n">
-        <v>73.33929796657156</v>
+        <v>75.11766640377508</v>
       </c>
       <c r="E39" t="n">
-        <v>73.33929796657156</v>
+        <v>75.11766640377508</v>
       </c>
       <c r="F39" t="n">
-        <v>73.33929796657156</v>
+        <v>75.11766640377508</v>
       </c>
       <c r="G39" t="n">
-        <v>73.33929796657156</v>
+        <v>75.11766640377508</v>
       </c>
       <c r="H39" t="n">
-        <v>73.33929796657156</v>
+        <v>75.11766640377508</v>
       </c>
       <c r="I39" t="n">
-        <v>73.33929796657156</v>
+        <v>75.11766640377508</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -30349,28 +30349,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>73.33929796657156</v>
+        <v>75.11766640377508</v>
       </c>
       <c r="S39" t="n">
-        <v>73.33929796657156</v>
+        <v>75.11766640377508</v>
       </c>
       <c r="T39" t="n">
-        <v>73.33929796657156</v>
+        <v>75.11766640377508</v>
       </c>
       <c r="U39" t="n">
-        <v>73.33929796657156</v>
+        <v>75.11766640377508</v>
       </c>
       <c r="V39" t="n">
-        <v>73.33929796657156</v>
+        <v>75.11766640377508</v>
       </c>
       <c r="W39" t="n">
-        <v>73.33929796657156</v>
+        <v>75.11766640377508</v>
       </c>
       <c r="X39" t="n">
-        <v>73.33929796657156</v>
+        <v>75.11766640377508</v>
       </c>
       <c r="Y39" t="n">
-        <v>73.33929796657156</v>
+        <v>75.11766640377508</v>
       </c>
     </row>
     <row r="40">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>73.33929796657156</v>
+        <v>75.11766640377508</v>
       </c>
       <c r="C40" t="n">
-        <v>73.33929796657156</v>
+        <v>75.11766640377508</v>
       </c>
       <c r="D40" t="n">
-        <v>73.33929796657156</v>
+        <v>75.11766640377508</v>
       </c>
       <c r="E40" t="n">
-        <v>73.33929796657156</v>
+        <v>75.11766640377508</v>
       </c>
       <c r="F40" t="n">
-        <v>73.33929796657156</v>
+        <v>75.11766640377508</v>
       </c>
       <c r="G40" t="n">
-        <v>73.33929796657156</v>
+        <v>75.11766640377508</v>
       </c>
       <c r="H40" t="n">
-        <v>73.33929796657156</v>
+        <v>75.11766640377508</v>
       </c>
       <c r="I40" t="n">
-        <v>73.33929796657156</v>
+        <v>75.11766640377508</v>
       </c>
       <c r="J40" t="n">
-        <v>73.33929796657156</v>
+        <v>75.11766640377508</v>
       </c>
       <c r="K40" t="n">
-        <v>73.33929796657156</v>
+        <v>75.11766640377508</v>
       </c>
       <c r="L40" t="n">
-        <v>73.33929796657156</v>
+        <v>75.11766640377508</v>
       </c>
       <c r="M40" t="n">
-        <v>73.33929796657156</v>
+        <v>75.11766640377508</v>
       </c>
       <c r="N40" t="n">
-        <v>73.33929796657156</v>
+        <v>75.11766640377508</v>
       </c>
       <c r="O40" t="n">
-        <v>73.33929796657156</v>
+        <v>75.11766640377508</v>
       </c>
       <c r="P40" t="n">
-        <v>73.33929796657156</v>
+        <v>75.11766640377508</v>
       </c>
       <c r="Q40" t="n">
-        <v>73.33929796657156</v>
+        <v>75.11766640377508</v>
       </c>
       <c r="R40" t="n">
-        <v>73.33929796657156</v>
+        <v>75.11766640377508</v>
       </c>
       <c r="S40" t="n">
-        <v>73.33929796657156</v>
+        <v>75.11766640377508</v>
       </c>
       <c r="T40" t="n">
-        <v>73.33929796657156</v>
+        <v>75.11766640377508</v>
       </c>
       <c r="U40" t="n">
-        <v>73.33929796657156</v>
+        <v>75.11766640377508</v>
       </c>
       <c r="V40" t="n">
-        <v>73.33929796657156</v>
+        <v>75.11766640377508</v>
       </c>
       <c r="W40" t="n">
-        <v>73.33929796657156</v>
+        <v>75.11766640377508</v>
       </c>
       <c r="X40" t="n">
-        <v>73.33929796657156</v>
+        <v>75.11766640377508</v>
       </c>
       <c r="Y40" t="n">
-        <v>73.33929796657156</v>
+        <v>75.11766640377508</v>
       </c>
     </row>
     <row r="41">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="C41" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="D41" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="E41" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="F41" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="G41" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="H41" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="I41" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -30507,28 +30507,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="S41" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="T41" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="U41" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="V41" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="W41" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="X41" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="Y41" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
     </row>
     <row r="42">
@@ -30538,28 +30538,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="C42" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="D42" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="E42" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="F42" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="G42" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="H42" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="I42" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -30586,28 +30586,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="S42" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="T42" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="U42" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="V42" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="W42" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="X42" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="Y42" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
     </row>
     <row r="43">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="C43" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="D43" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="E43" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="F43" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="G43" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="H43" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="I43" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="J43" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="K43" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="L43" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="M43" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="N43" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="O43" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="P43" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="Q43" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="R43" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="S43" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="T43" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="U43" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="V43" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="W43" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="X43" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="Y43" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="C44" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="D44" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="E44" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="F44" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="G44" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="H44" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="I44" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
@@ -30744,28 +30744,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="S44" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="T44" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="U44" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="V44" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="W44" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="X44" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="Y44" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
     </row>
     <row r="45">
@@ -30775,28 +30775,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="C45" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="D45" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="E45" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="F45" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="G45" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="H45" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="I45" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -30823,28 +30823,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="S45" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="T45" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="U45" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="V45" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="W45" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="X45" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="Y45" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
     </row>
     <row r="46">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="C46" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="D46" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="E46" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="F46" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="G46" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="H46" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="I46" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="J46" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="K46" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="L46" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="M46" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="N46" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="O46" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="P46" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="Q46" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="R46" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="S46" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="T46" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="U46" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="V46" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="W46" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="X46" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
       <c r="Y46" t="n">
-        <v>61.39000861195904</v>
+        <v>52.4071757479345</v>
       </c>
     </row>
   </sheetData>
@@ -35889,19 +35889,19 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>107.2264454249826</v>
       </c>
       <c r="M17" t="n">
-        <v>104.5316728441181</v>
+        <v>15.49923527423529</v>
       </c>
       <c r="N17" t="n">
-        <v>100.7842822289562</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>104.5316728441181</v>
+        <v>107.2264454249826</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>32.79855014182243</v>
       </c>
       <c r="L18" t="n">
-        <v>104.5316728441181</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>104.5316728441181</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>100.3081709110224</v>
+        <v>107.2264454249826</v>
       </c>
       <c r="O18" t="n">
-        <v>104.5316728441181</v>
+        <v>107.2264454249826</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>107.2264454249826</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>28.23099475560732</v>
+        <v>30.00936319281083</v>
       </c>
       <c r="L19" t="n">
-        <v>78.09051184180632</v>
+        <v>79.86888027900983</v>
       </c>
       <c r="M19" t="n">
-        <v>90.08436354333077</v>
+        <v>91.86273198053428</v>
       </c>
       <c r="N19" t="n">
-        <v>94.63265896071877</v>
+        <v>96.41102739792228</v>
       </c>
       <c r="O19" t="n">
-        <v>75.08561449552985</v>
+        <v>76.86398293273336</v>
       </c>
       <c r="P19" t="n">
-        <v>47.77904584638366</v>
+        <v>49.55741428358717</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36123,22 +36123,22 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>10.21856981274317</v>
+        <v>102.89406379165</v>
       </c>
       <c r="M20" t="n">
-        <v>104.5316728441181</v>
+        <v>107.2264454249826</v>
       </c>
       <c r="N20" t="n">
-        <v>104.5316728441181</v>
+        <v>107.2264454249826</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>107.2264454249826</v>
       </c>
       <c r="P20" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>104.5316728441181</v>
+        <v>107.2264454249826</v>
       </c>
       <c r="L21" t="n">
-        <v>104.5316728441181</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>32.79855014182243</v>
       </c>
       <c r="O21" t="n">
-        <v>104.5316728441181</v>
+        <v>107.2264454249826</v>
       </c>
       <c r="P21" t="n">
-        <v>30.21265726119487</v>
+        <v>107.2264454249826</v>
       </c>
       <c r="Q21" t="n">
         <v>70.09551364982758</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>28.23099475560732</v>
+        <v>30.00936319281084</v>
       </c>
       <c r="L22" t="n">
-        <v>78.09051184180632</v>
+        <v>79.86888027900983</v>
       </c>
       <c r="M22" t="n">
-        <v>90.08436354333077</v>
+        <v>91.86273198053428</v>
       </c>
       <c r="N22" t="n">
-        <v>94.63265896071877</v>
+        <v>96.41102739792228</v>
       </c>
       <c r="O22" t="n">
-        <v>75.08561449552985</v>
+        <v>76.86398293273336</v>
       </c>
       <c r="P22" t="n">
-        <v>47.77904584638366</v>
+        <v>49.55741428358718</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>104.0555615261842</v>
+        <v>4.173045818891265</v>
       </c>
       <c r="L23" t="n">
-        <v>120.7191062051575</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M23" t="n">
-        <v>219.1673002655598</v>
+        <v>214.6473360366209</v>
       </c>
       <c r="N23" t="n">
         <v>207.9338608153932</v>
@@ -36439,19 +36439,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>60.80722797281506</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>166.0381775599639</v>
       </c>
       <c r="N24" t="n">
-        <v>225.5643050915487</v>
+        <v>214.6473360366209</v>
       </c>
       <c r="O24" t="n">
-        <v>225.5643050915487</v>
+        <v>214.6473360366209</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
@@ -36597,13 +36597,13 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>42.87986815087851</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L26" t="n">
-        <v>181.8947995804632</v>
+        <v>82.01228387317029</v>
       </c>
       <c r="M26" t="n">
-        <v>219.1673002655598</v>
+        <v>214.6473360366209</v>
       </c>
       <c r="N26" t="n">
         <v>207.9338608153932</v>
@@ -36676,16 +36676,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>225.5643050915487</v>
+        <v>214.6473360366209</v>
       </c>
       <c r="M27" t="n">
-        <v>187.4310260110346</v>
+        <v>214.6473360366209</v>
       </c>
       <c r="N27" t="n">
-        <v>225.5643050915487</v>
+        <v>39.41437952174428</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>6.798654035970358</v>
       </c>
       <c r="K28" t="n">
-        <v>67.12714102553223</v>
+        <v>77.88834232676028</v>
       </c>
       <c r="L28" t="n">
-        <v>116.9866581117312</v>
+        <v>127.7478594129593</v>
       </c>
       <c r="M28" t="n">
-        <v>128.9805098132557</v>
+        <v>139.7417111144837</v>
       </c>
       <c r="N28" t="n">
-        <v>133.5288052306437</v>
+        <v>144.2900065318717</v>
       </c>
       <c r="O28" t="n">
-        <v>113.9817607654548</v>
+        <v>124.7429620666828</v>
       </c>
       <c r="P28" t="n">
-        <v>86.67519211630857</v>
+        <v>97.43639341753662</v>
       </c>
       <c r="Q28" t="n">
-        <v>3.234589599720692</v>
+        <v>13.99579090094875</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>42.87986815087851</v>
+        <v>94.73875823510437</v>
       </c>
       <c r="L29" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M29" t="n">
-        <v>219.1673002655598</v>
+        <v>214.6473360366209</v>
       </c>
       <c r="N29" t="n">
         <v>207.9338608153932</v>
@@ -36849,7 +36849,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P29" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>214.6473360366209</v>
       </c>
       <c r="M30" t="n">
-        <v>225.5643050915487</v>
+        <v>214.6473360366209</v>
       </c>
       <c r="N30" t="n">
-        <v>225.5643050915487</v>
+        <v>214.6473360366209</v>
       </c>
       <c r="O30" t="n">
-        <v>187.4310260110346</v>
+        <v>9.255404710730394</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>70.09551364982758</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>6.798654035970358</v>
       </c>
       <c r="K31" t="n">
-        <v>67.12714102553223</v>
+        <v>77.88834232676028</v>
       </c>
       <c r="L31" t="n">
-        <v>116.9866581117312</v>
+        <v>127.7478594129593</v>
       </c>
       <c r="M31" t="n">
-        <v>128.9805098132557</v>
+        <v>139.7417111144837</v>
       </c>
       <c r="N31" t="n">
-        <v>133.5288052306437</v>
+        <v>144.2900065318717</v>
       </c>
       <c r="O31" t="n">
-        <v>113.9817607654548</v>
+        <v>124.7429620666828</v>
       </c>
       <c r="P31" t="n">
-        <v>86.67519211630857</v>
+        <v>97.43639341753662</v>
       </c>
       <c r="Q31" t="n">
-        <v>3.234589599720692</v>
+        <v>13.99579090094875</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,19 +37071,19 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>42.87986815087851</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L32" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M32" t="n">
-        <v>219.1673002655598</v>
+        <v>214.6473360366209</v>
       </c>
       <c r="N32" t="n">
         <v>207.9338608153932</v>
       </c>
       <c r="O32" t="n">
-        <v>150.7019698410586</v>
+        <v>50.81945413376563</v>
       </c>
       <c r="P32" t="n">
         <v>90.5657124162131</v>
@@ -37150,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>225.5643050915487</v>
+        <v>214.6473360366209</v>
       </c>
       <c r="N33" t="n">
-        <v>225.5643050915487</v>
+        <v>214.6473360366209</v>
       </c>
       <c r="O33" t="n">
-        <v>60.80722797281508</v>
+        <v>214.6473360366209</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>21.48635517317076</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37308,22 +37308,22 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>104.0555615261842</v>
+        <v>94.73875823510437</v>
       </c>
       <c r="L35" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M35" t="n">
-        <v>219.1673002655598</v>
+        <v>214.6473360366209</v>
       </c>
       <c r="N35" t="n">
-        <v>146.7581674400876</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O35" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P35" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>187.4310260110346</v>
+        <v>214.6473360366209</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>214.6473360366209</v>
       </c>
       <c r="N36" t="n">
-        <v>225.5643050915487</v>
+        <v>214.6473360366209</v>
       </c>
       <c r="O36" t="n">
-        <v>225.5643050915487</v>
+        <v>79.35091836055801</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>104.0555615261842</v>
+        <v>4.173045818891265</v>
       </c>
       <c r="L38" t="n">
-        <v>120.7191062051575</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>219.1673002655598</v>
+        <v>214.6473360366209</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
@@ -37624,19 +37624,19 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>225.5643050915487</v>
+        <v>214.6473360366209</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>214.6473360366209</v>
       </c>
       <c r="N39" t="n">
-        <v>187.4310260110346</v>
+        <v>39.41437952174428</v>
       </c>
       <c r="O39" t="n">
-        <v>225.5643050915487</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
@@ -37703,22 +37703,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>51.06980614068871</v>
+        <v>52.84817457789222</v>
       </c>
       <c r="L40" t="n">
-        <v>100.9293232268877</v>
+        <v>102.7076916640912</v>
       </c>
       <c r="M40" t="n">
-        <v>112.9231749284122</v>
+        <v>114.7015433656157</v>
       </c>
       <c r="N40" t="n">
-        <v>117.4714703458002</v>
+        <v>119.2498387830037</v>
       </c>
       <c r="O40" t="n">
-        <v>97.92442588061124</v>
+        <v>99.70279431781475</v>
       </c>
       <c r="P40" t="n">
-        <v>70.61785723146505</v>
+        <v>72.39622566866856</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37785,16 +37785,16 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
-        <v>12.08686335771382</v>
+        <v>106.4459816925818</v>
       </c>
       <c r="M41" t="n">
-        <v>121.0326322474306</v>
+        <v>107.4208906116383</v>
       </c>
       <c r="N41" t="n">
-        <v>121.0326322474306</v>
+        <v>107.4208906116383</v>
       </c>
       <c r="O41" t="n">
-        <v>121.0326322474306</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -37861,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>121.0326322474306</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>46.04691123407044</v>
+        <v>103.0806526071277</v>
       </c>
       <c r="M42" t="n">
-        <v>121.0326322474306</v>
+        <v>107.4208906116383</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>107.4208906116383</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>107.4208906116383</v>
       </c>
       <c r="P42" t="n">
-        <v>121.0326322474306</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,22 +37940,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>39.12051678607619</v>
+        <v>30.13768392205165</v>
       </c>
       <c r="L43" t="n">
-        <v>88.98003387227519</v>
+        <v>79.99720100825064</v>
       </c>
       <c r="M43" t="n">
-        <v>100.9738855737996</v>
+        <v>91.99105270977509</v>
       </c>
       <c r="N43" t="n">
-        <v>105.5221809911876</v>
+        <v>96.53934812716309</v>
       </c>
       <c r="O43" t="n">
-        <v>85.97513652599872</v>
+        <v>76.99230366197418</v>
       </c>
       <c r="P43" t="n">
-        <v>58.66856787685253</v>
+        <v>49.68573501282799</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38022,19 +38022,19 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
-        <v>42.55378318893138</v>
+        <v>107.4208906116383</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>106.4459816925818</v>
       </c>
       <c r="N44" t="n">
-        <v>121.0326322474306</v>
+        <v>107.4208906116383</v>
       </c>
       <c r="O44" t="n">
-        <v>121.0326322474306</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>46.04691123407049</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>121.0326322474306</v>
+        <v>103.0806526071277</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>107.4208906116383</v>
       </c>
       <c r="N45" t="n">
-        <v>121.0326322474306</v>
+        <v>107.4208906116383</v>
       </c>
       <c r="O45" t="n">
-        <v>121.0326322474306</v>
+        <v>107.4208906116383</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,22 +38177,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>39.12051678607619</v>
+        <v>30.13768392205165</v>
       </c>
       <c r="L46" t="n">
-        <v>88.98003387227519</v>
+        <v>79.99720100825064</v>
       </c>
       <c r="M46" t="n">
-        <v>100.9738855737996</v>
+        <v>91.99105270977509</v>
       </c>
       <c r="N46" t="n">
-        <v>105.5221809911876</v>
+        <v>96.53934812716309</v>
       </c>
       <c r="O46" t="n">
-        <v>85.97513652599872</v>
+        <v>76.99230366197418</v>
       </c>
       <c r="P46" t="n">
-        <v>58.66856787685253</v>
+        <v>49.68573501282799</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
